--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4176514.665134828</v>
+        <v>4175046.661058084</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>207348.0723902874</v>
+        <v>408134.367532771</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53890.85515285079</v>
+        <v>53890.85515285225</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>200.3360962888296</v>
+        <v>35.16424083254472</v>
       </c>
       <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9634147202719892</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>10.60742650965353</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>200.3360962888296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>231.9261899533541</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>124.3991006813875</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>54.82907102477793</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>75.08620022294134</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,28 +1214,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>61.06744348769813</v>
+        <v>36.43923176655773</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>290.9151919517671</v>
       </c>
       <c r="F11" t="n">
-        <v>315.8608676212168</v>
+        <v>270.7261480627131</v>
       </c>
       <c r="G11" t="n">
         <v>322.0772286298366</v>
       </c>
       <c r="H11" t="n">
-        <v>225.8230740502262</v>
+        <v>225.8230740502261</v>
       </c>
       <c r="I11" t="n">
-        <v>34.24693463981494</v>
+        <v>34.24693463981488</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.63697916278537</v>
+        <v>67.63697916278534</v>
       </c>
       <c r="T11" t="n">
-        <v>77.27022896220728</v>
+        <v>122.4049485207083</v>
       </c>
       <c r="U11" t="n">
         <v>160.1536483261575</v>
@@ -1469,7 +1469,7 @@
         <v>100.8137164007008</v>
       </c>
       <c r="I12" t="n">
-        <v>48.6788474240782</v>
+        <v>48.67884742407819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>26.73095892851816</v>
+        <v>26.73095892851813</v>
       </c>
       <c r="S12" t="n">
         <v>149.7163148892172</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.81680206144263</v>
+        <v>88.81680206144262</v>
       </c>
       <c r="C13" t="n">
-        <v>76.23164297813317</v>
+        <v>76.23164297813315</v>
       </c>
       <c r="D13" t="n">
-        <v>57.60029489771769</v>
+        <v>57.60029489771767</v>
       </c>
       <c r="E13" t="n">
-        <v>55.4187845260745</v>
+        <v>55.41878452607449</v>
       </c>
       <c r="F13" t="n">
-        <v>54.40586990243658</v>
+        <v>54.40586990243656</v>
       </c>
       <c r="G13" t="n">
-        <v>75.98432295022734</v>
+        <v>75.98432295022732</v>
       </c>
       <c r="H13" t="n">
-        <v>62.39685106506703</v>
+        <v>62.39685106506672</v>
       </c>
       <c r="I13" t="n">
-        <v>34.61884066282538</v>
+        <v>34.61884066282536</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.6977440644383</v>
+        <v>41.69774406443826</v>
       </c>
       <c r="S13" t="n">
-        <v>115.7226573929193</v>
+        <v>115.7226573929197</v>
       </c>
       <c r="T13" t="n">
         <v>132.694094987457</v>
       </c>
       <c r="U13" t="n">
-        <v>195.2497706021201</v>
+        <v>195.2497706021205</v>
       </c>
       <c r="V13" t="n">
         <v>161.1224652033333</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>246.5839439844849</v>
+        <v>291.718663542986</v>
       </c>
       <c r="C14" t="n">
         <v>274.2577136505129</v>
@@ -1615,19 +1615,19 @@
         <v>263.6678635001883</v>
       </c>
       <c r="E14" t="n">
-        <v>290.9151919517671</v>
+        <v>290.9151919517672</v>
       </c>
       <c r="F14" t="n">
         <v>315.8608676212168</v>
       </c>
       <c r="G14" t="n">
-        <v>322.0772286298366</v>
+        <v>322.0772286298367</v>
       </c>
       <c r="H14" t="n">
-        <v>225.8230740502261</v>
+        <v>225.8230740502262</v>
       </c>
       <c r="I14" t="n">
-        <v>34.24693463981488</v>
+        <v>34.24693463981498</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.63697916278534</v>
+        <v>67.63697916278542</v>
       </c>
       <c r="T14" t="n">
-        <v>122.4049485207083</v>
+        <v>122.4049485207084</v>
       </c>
       <c r="U14" t="n">
-        <v>160.1536483261575</v>
+        <v>160.1536483261576</v>
       </c>
       <c r="V14" t="n">
-        <v>236.7370803496402</v>
+        <v>191.6023607911358</v>
       </c>
       <c r="W14" t="n">
-        <v>258.2257905969183</v>
+        <v>258.2257905969184</v>
       </c>
       <c r="X14" t="n">
         <v>278.7159225579744</v>
       </c>
       <c r="Y14" t="n">
-        <v>295.2227605355589</v>
+        <v>295.222760535559</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>100.8137164007008</v>
       </c>
       <c r="I15" t="n">
-        <v>48.67884742407817</v>
+        <v>48.67884742407821</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>26.73095892851812</v>
+        <v>26.73095892851818</v>
       </c>
       <c r="S15" t="n">
         <v>149.7163148892172</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.81680206144263</v>
+        <v>88.81680206144266</v>
       </c>
       <c r="C16" t="n">
-        <v>76.23164297813317</v>
+        <v>76.23164297813319</v>
       </c>
       <c r="D16" t="n">
-        <v>57.60029489771769</v>
+        <v>57.60029489771772</v>
       </c>
       <c r="E16" t="n">
-        <v>55.4187845260745</v>
+        <v>55.41878452607453</v>
       </c>
       <c r="F16" t="n">
-        <v>54.40586990243658</v>
+        <v>54.40586990243661</v>
       </c>
       <c r="G16" t="n">
-        <v>75.98432295022734</v>
+        <v>75.98432295022737</v>
       </c>
       <c r="H16" t="n">
-        <v>62.39685106506715</v>
+        <v>62.39685106506719</v>
       </c>
       <c r="I16" t="n">
-        <v>34.61884066282536</v>
+        <v>34.61884066282542</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.69774406443827</v>
+        <v>41.69774406443833</v>
       </c>
       <c r="S16" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T16" t="n">
-        <v>132.694094987457</v>
+        <v>132.6940949874571</v>
       </c>
       <c r="U16" t="n">
         <v>195.2497706021197</v>
       </c>
       <c r="V16" t="n">
-        <v>161.1224652033333</v>
+        <v>161.1224652033334</v>
       </c>
       <c r="W16" t="n">
-        <v>195.5078202160963</v>
+        <v>195.5078202160964</v>
       </c>
       <c r="X16" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.5694752316001</v>
+        <v>127.5694752316002</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.7096822390859</v>
+        <v>288.7096822390857</v>
       </c>
       <c r="C17" t="n">
-        <v>271.2487323466128</v>
+        <v>271.2487323466127</v>
       </c>
       <c r="D17" t="n">
-        <v>260.6588821962882</v>
+        <v>260.6588821962881</v>
       </c>
       <c r="E17" t="n">
-        <v>287.9062106478671</v>
+        <v>287.9062106478669</v>
       </c>
       <c r="F17" t="n">
-        <v>312.8518863173167</v>
+        <v>312.8518863173165</v>
       </c>
       <c r="G17" t="n">
-        <v>319.0682473259366</v>
+        <v>319.0682473259364</v>
       </c>
       <c r="H17" t="n">
-        <v>222.8140927463261</v>
+        <v>222.8140927463259</v>
       </c>
       <c r="I17" t="n">
-        <v>31.2379533359148</v>
+        <v>31.2379533359163</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.627997858885</v>
+        <v>64.62799785888514</v>
       </c>
       <c r="T17" t="n">
-        <v>119.3959672168082</v>
+        <v>119.3959672168081</v>
       </c>
       <c r="U17" t="n">
-        <v>157.1446670222574</v>
+        <v>157.1446670222573</v>
       </c>
       <c r="V17" t="n">
-        <v>233.7280990457402</v>
+        <v>233.72809904574</v>
       </c>
       <c r="W17" t="n">
-        <v>255.2168092930183</v>
+        <v>255.2168092930181</v>
       </c>
       <c r="X17" t="n">
-        <v>275.7069412540743</v>
+        <v>275.7069412540741</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.2137792316588</v>
+        <v>292.2137792316587</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>100.8137164007008</v>
       </c>
       <c r="I18" t="n">
-        <v>48.67884742407817</v>
+        <v>48.67884742407819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>26.73095892851812</v>
+        <v>26.73095892851815</v>
       </c>
       <c r="S18" t="n">
         <v>149.7163148892172</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.80782075754254</v>
+        <v>85.8078207575424</v>
       </c>
       <c r="C19" t="n">
-        <v>73.22266167423308</v>
+        <v>73.22266167423294</v>
       </c>
       <c r="D19" t="n">
-        <v>54.5913135938176</v>
+        <v>54.59131359381746</v>
       </c>
       <c r="E19" t="n">
-        <v>52.40980322217442</v>
+        <v>52.40980322217428</v>
       </c>
       <c r="F19" t="n">
-        <v>51.39688859853649</v>
+        <v>51.39688859853635</v>
       </c>
       <c r="G19" t="n">
-        <v>72.97534164632725</v>
+        <v>72.97534164632711</v>
       </c>
       <c r="H19" t="n">
-        <v>59.38786976116707</v>
+        <v>59.38786976116693</v>
       </c>
       <c r="I19" t="n">
-        <v>31.60985935892528</v>
+        <v>31.60985935892515</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>38.68876276053818</v>
+        <v>38.68876276053806</v>
       </c>
       <c r="S19" t="n">
-        <v>112.7136760890196</v>
+        <v>112.7136760890195</v>
       </c>
       <c r="T19" t="n">
-        <v>129.6851136835569</v>
+        <v>129.6851136835568</v>
       </c>
       <c r="U19" t="n">
-        <v>192.2407892982196</v>
+        <v>192.2407892982195</v>
       </c>
       <c r="V19" t="n">
-        <v>158.1134838994332</v>
+        <v>158.1134838994331</v>
       </c>
       <c r="W19" t="n">
-        <v>192.4988389121962</v>
+        <v>192.4988389121961</v>
       </c>
       <c r="X19" t="n">
-        <v>131.6854959646424</v>
+        <v>131.6854959646423</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.5604939277</v>
+        <v>124.5604939276999</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.7096822390859</v>
+        <v>288.7096822390857</v>
       </c>
       <c r="C20" t="n">
-        <v>271.2487323466128</v>
+        <v>271.2487323466127</v>
       </c>
       <c r="D20" t="n">
-        <v>260.6588821962882</v>
+        <v>260.6588821962881</v>
       </c>
       <c r="E20" t="n">
-        <v>287.9062106478671</v>
+        <v>287.9062106478669</v>
       </c>
       <c r="F20" t="n">
-        <v>312.8518863173167</v>
+        <v>312.8518863173165</v>
       </c>
       <c r="G20" t="n">
-        <v>319.0682473259366</v>
+        <v>319.0682473259364</v>
       </c>
       <c r="H20" t="n">
-        <v>222.8140927463261</v>
+        <v>222.8140927463259</v>
       </c>
       <c r="I20" t="n">
-        <v>31.2379533359148</v>
+        <v>31.23795333591462</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.62799785888527</v>
+        <v>64.62799785888544</v>
       </c>
       <c r="T20" t="n">
-        <v>119.3959672168082</v>
+        <v>119.3959672168081</v>
       </c>
       <c r="U20" t="n">
         <v>157.1446670222574</v>
       </c>
       <c r="V20" t="n">
-        <v>233.7280990457401</v>
+        <v>233.72809904574</v>
       </c>
       <c r="W20" t="n">
-        <v>255.2168092930183</v>
+        <v>255.2168092930181</v>
       </c>
       <c r="X20" t="n">
-        <v>275.7069412540743</v>
+        <v>275.7069412540741</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.2137792316588</v>
+        <v>292.2137792316587</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>100.8137164007008</v>
       </c>
       <c r="I21" t="n">
-        <v>48.67884742407817</v>
+        <v>48.67884742407819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>26.73095892851812</v>
+        <v>26.73095892851815</v>
       </c>
       <c r="S21" t="n">
         <v>149.7163148892172</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.80782075754254</v>
+        <v>85.8078207575424</v>
       </c>
       <c r="C22" t="n">
-        <v>73.22266167423308</v>
+        <v>73.22266167423294</v>
       </c>
       <c r="D22" t="n">
-        <v>54.5913135938176</v>
+        <v>54.59131359381746</v>
       </c>
       <c r="E22" t="n">
-        <v>52.40980322217442</v>
+        <v>52.40980322217428</v>
       </c>
       <c r="F22" t="n">
-        <v>51.39688859853649</v>
+        <v>51.39688859853635</v>
       </c>
       <c r="G22" t="n">
-        <v>72.97534164632725</v>
+        <v>72.97534164632711</v>
       </c>
       <c r="H22" t="n">
-        <v>59.38786976116707</v>
+        <v>59.38786976116693</v>
       </c>
       <c r="I22" t="n">
-        <v>31.60985935892528</v>
+        <v>31.60985935892515</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.68876276053818</v>
+        <v>38.68876276053806</v>
       </c>
       <c r="S22" t="n">
-        <v>112.7136760890196</v>
+        <v>112.7136760890195</v>
       </c>
       <c r="T22" t="n">
-        <v>129.6851136835569</v>
+        <v>129.6851136835568</v>
       </c>
       <c r="U22" t="n">
-        <v>192.2407892982196</v>
+        <v>192.2407892982195</v>
       </c>
       <c r="V22" t="n">
-        <v>158.1134838994332</v>
+        <v>158.1134838994331</v>
       </c>
       <c r="W22" t="n">
-        <v>192.4988389121962</v>
+        <v>192.4988389121961</v>
       </c>
       <c r="X22" t="n">
-        <v>131.6854959646424</v>
+        <v>131.6854959646423</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.5604939277</v>
+        <v>124.5604939276999</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.7096822390859</v>
+        <v>288.7096822390857</v>
       </c>
       <c r="C23" t="n">
         <v>271.2487323466128</v>
       </c>
       <c r="D23" t="n">
-        <v>260.6588821962882</v>
+        <v>260.6588821962881</v>
       </c>
       <c r="E23" t="n">
-        <v>287.9062106478671</v>
+        <v>287.9062106478669</v>
       </c>
       <c r="F23" t="n">
-        <v>312.8518863173167</v>
+        <v>312.8518863173166</v>
       </c>
       <c r="G23" t="n">
-        <v>319.0682473259366</v>
+        <v>319.0682473259365</v>
       </c>
       <c r="H23" t="n">
-        <v>222.8140927463261</v>
+        <v>222.814092746326</v>
       </c>
       <c r="I23" t="n">
-        <v>31.23795333591415</v>
+        <v>31.23795333591478</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.627997858885</v>
+        <v>64.62799785888544</v>
       </c>
       <c r="T23" t="n">
         <v>119.3959672168082</v>
       </c>
       <c r="U23" t="n">
-        <v>157.1446670222578</v>
+        <v>157.1446670222569</v>
       </c>
       <c r="V23" t="n">
-        <v>233.7280990457402</v>
+        <v>233.7280990457401</v>
       </c>
       <c r="W23" t="n">
-        <v>255.2168092930183</v>
+        <v>255.2168092930182</v>
       </c>
       <c r="X23" t="n">
-        <v>275.7069412540743</v>
+        <v>275.7069412540742</v>
       </c>
       <c r="Y23" t="n">
         <v>292.2137792316588</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.80782075754254</v>
+        <v>85.80782075754249</v>
       </c>
       <c r="C25" t="n">
-        <v>73.22266167423308</v>
+        <v>73.22266167423302</v>
       </c>
       <c r="D25" t="n">
-        <v>54.5913135938176</v>
+        <v>54.59131359381755</v>
       </c>
       <c r="E25" t="n">
-        <v>52.40980322217442</v>
+        <v>52.40980322217436</v>
       </c>
       <c r="F25" t="n">
-        <v>51.39688859853649</v>
+        <v>51.39688859853644</v>
       </c>
       <c r="G25" t="n">
-        <v>72.97534164632725</v>
+        <v>72.97534164632719</v>
       </c>
       <c r="H25" t="n">
-        <v>59.38786976116707</v>
+        <v>59.38786976116701</v>
       </c>
       <c r="I25" t="n">
-        <v>31.60985935892528</v>
+        <v>31.60985935892522</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>38.68876276053818</v>
+        <v>38.68876276053813</v>
       </c>
       <c r="S25" t="n">
-        <v>112.7136760890196</v>
+        <v>112.7136760890195</v>
       </c>
       <c r="T25" t="n">
         <v>129.6851136835569</v>
       </c>
       <c r="U25" t="n">
-        <v>192.2407892982196</v>
+        <v>192.2407892982195</v>
       </c>
       <c r="V25" t="n">
         <v>158.1134838994332</v>
@@ -2541,7 +2541,7 @@
         <v>192.4988389121962</v>
       </c>
       <c r="X25" t="n">
-        <v>131.6854959646424</v>
+        <v>131.6854959646423</v>
       </c>
       <c r="Y25" t="n">
         <v>124.5604939277</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>280.8308786242983</v>
+        <v>291.718663542986</v>
       </c>
       <c r="C26" t="n">
         <v>274.2577136505129</v>
       </c>
       <c r="D26" t="n">
-        <v>263.6678635001883</v>
+        <v>252.7800785815014</v>
       </c>
       <c r="E26" t="n">
         <v>290.9151919517672</v>
@@ -2730,10 +2730,10 @@
         <v>75.98432295022739</v>
       </c>
       <c r="H28" t="n">
-        <v>62.39685106506695</v>
+        <v>62.39685106506721</v>
       </c>
       <c r="I28" t="n">
-        <v>34.61884066282537</v>
+        <v>34.61884066282542</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.69774406443834</v>
+        <v>41.69774406443833</v>
       </c>
       <c r="S28" t="n">
-        <v>115.7226573929195</v>
+        <v>115.7226573929197</v>
       </c>
       <c r="T28" t="n">
         <v>132.6940949874571</v>
       </c>
       <c r="U28" t="n">
-        <v>195.2497706021196</v>
+        <v>195.2497706021197</v>
       </c>
       <c r="V28" t="n">
         <v>161.1224652033334</v>
@@ -2812,7 +2812,7 @@
         <v>225.8230740502262</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.2469346398149</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.74919424409838</v>
+        <v>22.50225960428339</v>
       </c>
       <c r="T29" t="n">
         <v>122.4049485207083</v>
       </c>
       <c r="U29" t="n">
-        <v>160.1536483261576</v>
+        <v>160.1536483261575</v>
       </c>
       <c r="V29" t="n">
         <v>236.7370803496403</v>
@@ -2860,7 +2860,7 @@
         <v>278.7159225579744</v>
       </c>
       <c r="Y29" t="n">
-        <v>295.222760535559</v>
+        <v>295.2227605355589</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>88.81680206144269</v>
+        <v>88.81680206144264</v>
       </c>
       <c r="C31" t="n">
-        <v>76.23164297813322</v>
+        <v>76.23164297813318</v>
       </c>
       <c r="D31" t="n">
-        <v>57.60029489771775</v>
+        <v>57.6002948977177</v>
       </c>
       <c r="E31" t="n">
-        <v>55.41878452607456</v>
+        <v>55.41878452607452</v>
       </c>
       <c r="F31" t="n">
-        <v>54.40586990243663</v>
+        <v>54.40586990243659</v>
       </c>
       <c r="G31" t="n">
-        <v>75.98432295022739</v>
+        <v>75.98432295022735</v>
       </c>
       <c r="H31" t="n">
-        <v>62.3968510650672</v>
+        <v>62.39685106506715</v>
       </c>
       <c r="I31" t="n">
-        <v>34.61884066282549</v>
+        <v>34.61884066282538</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.69774406443834</v>
+        <v>41.6977440644383</v>
       </c>
       <c r="S31" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T31" t="n">
-        <v>132.6940949874571</v>
+        <v>132.694094987457</v>
       </c>
       <c r="U31" t="n">
-        <v>195.2497706021197</v>
+        <v>195.2497706021201</v>
       </c>
       <c r="V31" t="n">
-        <v>161.1224652033334</v>
+        <v>161.1224652033333</v>
       </c>
       <c r="W31" t="n">
-        <v>195.5078202160964</v>
+        <v>195.5078202160963</v>
       </c>
       <c r="X31" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y31" t="n">
-        <v>127.5694752316002</v>
+        <v>127.5694752316001</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>222.814092746326</v>
       </c>
       <c r="I32" t="n">
-        <v>31.23795333591478</v>
+        <v>31.23795333591453</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.62799785888525</v>
+        <v>64.62799785888521</v>
       </c>
       <c r="T32" t="n">
-        <v>119.395967216808</v>
+        <v>119.3959672168082</v>
       </c>
       <c r="U32" t="n">
-        <v>157.1446670222569</v>
+        <v>157.1446670222583</v>
       </c>
       <c r="V32" t="n">
         <v>233.7280990457401</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85.80782075754253</v>
+        <v>85.8078207575425</v>
       </c>
       <c r="C34" t="n">
-        <v>73.22266167423307</v>
+        <v>73.22266167423304</v>
       </c>
       <c r="D34" t="n">
-        <v>54.59131359381759</v>
+        <v>54.59131359381756</v>
       </c>
       <c r="E34" t="n">
-        <v>52.4098032221744</v>
+        <v>52.40980322217438</v>
       </c>
       <c r="F34" t="n">
-        <v>51.39688859853648</v>
+        <v>51.39688859853645</v>
       </c>
       <c r="G34" t="n">
-        <v>72.97534164632724</v>
+        <v>72.97534164632721</v>
       </c>
       <c r="H34" t="n">
-        <v>59.38786976116705</v>
+        <v>59.38786976116702</v>
       </c>
       <c r="I34" t="n">
-        <v>31.60985935892527</v>
+        <v>31.60985935892524</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>38.68876276053817</v>
+        <v>38.68876276053814</v>
       </c>
       <c r="S34" t="n">
         <v>112.7136760890196</v>
@@ -3283,7 +3283,7 @@
         <v>319.0682473259365</v>
       </c>
       <c r="H35" t="n">
-        <v>222.8140927463262</v>
+        <v>222.814092746326</v>
       </c>
       <c r="I35" t="n">
         <v>31.23795333591475</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.627997858885</v>
+        <v>64.62799785888544</v>
       </c>
       <c r="T35" t="n">
         <v>119.3959672168082</v>
       </c>
       <c r="U35" t="n">
-        <v>157.1446670222583</v>
+        <v>157.1446670222574</v>
       </c>
       <c r="V35" t="n">
         <v>233.7280990457401</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>288.7096822390858</v>
+        <v>288.7096822390859</v>
       </c>
       <c r="C38" t="n">
         <v>271.2487323466128</v>
@@ -3511,19 +3511,19 @@
         <v>260.6588821962882</v>
       </c>
       <c r="E38" t="n">
-        <v>287.906210647867</v>
+        <v>287.9062106478671</v>
       </c>
       <c r="F38" t="n">
         <v>312.8518863173167</v>
       </c>
       <c r="G38" t="n">
-        <v>319.0682473259365</v>
+        <v>319.0682473259366</v>
       </c>
       <c r="H38" t="n">
-        <v>222.814092746326</v>
+        <v>222.8140927463261</v>
       </c>
       <c r="I38" t="n">
-        <v>31.23795333591475</v>
+        <v>31.2379533359148</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="S38" t="n">
-        <v>64.62799785888544</v>
+        <v>64.62799785888527</v>
       </c>
       <c r="T38" t="n">
         <v>119.3959672168082</v>
       </c>
       <c r="U38" t="n">
-        <v>157.1446670222565</v>
+        <v>157.1446670222575</v>
       </c>
       <c r="V38" t="n">
-        <v>233.7280990457401</v>
+        <v>233.7280990457402</v>
       </c>
       <c r="W38" t="n">
-        <v>255.2168092930182</v>
+        <v>255.2168092930183</v>
       </c>
       <c r="X38" t="n">
         <v>275.7069412540743</v>
       </c>
       <c r="Y38" t="n">
-        <v>292.2137792316588</v>
+        <v>292.2137792316589</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>100.8137164007008</v>
       </c>
       <c r="I39" t="n">
-        <v>48.67884742407817</v>
+        <v>48.67884742407816</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>26.73095892851812</v>
+        <v>26.73095892851811</v>
       </c>
       <c r="S39" t="n">
         <v>149.7163148892172</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.8078207575425</v>
+        <v>85.80782075754256</v>
       </c>
       <c r="C40" t="n">
-        <v>73.22266167423304</v>
+        <v>73.22266167423309</v>
       </c>
       <c r="D40" t="n">
-        <v>54.59131359381756</v>
+        <v>54.59131359381762</v>
       </c>
       <c r="E40" t="n">
-        <v>52.40980322217438</v>
+        <v>52.40980322217443</v>
       </c>
       <c r="F40" t="n">
-        <v>51.39688859853645</v>
+        <v>51.39688859853651</v>
       </c>
       <c r="G40" t="n">
-        <v>72.97534164632721</v>
+        <v>72.97534164632725</v>
       </c>
       <c r="H40" t="n">
-        <v>59.38786976116702</v>
+        <v>59.38786976116708</v>
       </c>
       <c r="I40" t="n">
-        <v>31.60985935892524</v>
+        <v>31.60985935892529</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>38.68876276053814</v>
+        <v>38.68876276053819</v>
       </c>
       <c r="S40" t="n">
         <v>112.7136760890196</v>
       </c>
       <c r="T40" t="n">
-        <v>129.6851136835569</v>
+        <v>129.685113683557</v>
       </c>
       <c r="U40" t="n">
         <v>192.2407892982196</v>
       </c>
       <c r="V40" t="n">
-        <v>158.1134838994332</v>
+        <v>158.1134838994333</v>
       </c>
       <c r="W40" t="n">
-        <v>192.4988389121962</v>
+        <v>192.4988389121963</v>
       </c>
       <c r="X40" t="n">
         <v>131.6854959646424</v>
       </c>
       <c r="Y40" t="n">
-        <v>124.5604939277</v>
+        <v>124.5604939277001</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>322.0772286298367</v>
       </c>
       <c r="H41" t="n">
-        <v>214.9352891315398</v>
+        <v>225.8230740502262</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.63697916278537</v>
+        <v>56.74919424409793</v>
       </c>
       <c r="T41" t="n">
         <v>122.4049485207083</v>
       </c>
       <c r="U41" t="n">
-        <v>160.1536483261575</v>
+        <v>160.1536483261576</v>
       </c>
       <c r="V41" t="n">
         <v>236.7370803496403</v>
@@ -3808,7 +3808,7 @@
         <v>278.7159225579744</v>
       </c>
       <c r="Y41" t="n">
-        <v>295.2227605355589</v>
+        <v>295.222760535559</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>100.8137164007008</v>
       </c>
       <c r="I42" t="n">
-        <v>48.67884742407817</v>
+        <v>48.67884742407816</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>26.73095892851812</v>
+        <v>26.73095892851811</v>
       </c>
       <c r="S42" t="n">
         <v>149.7163148892172</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>88.81680206144264</v>
+        <v>88.81680206144266</v>
       </c>
       <c r="C43" t="n">
-        <v>76.23164297813318</v>
+        <v>76.23164297813319</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60029489771821</v>
+        <v>57.60029489771772</v>
       </c>
       <c r="E43" t="n">
-        <v>55.41878452607452</v>
+        <v>55.41878452607453</v>
       </c>
       <c r="F43" t="n">
-        <v>54.40586990243659</v>
+        <v>54.40586990243661</v>
       </c>
       <c r="G43" t="n">
         <v>75.98432295022735</v>
       </c>
       <c r="H43" t="n">
-        <v>62.39685106506717</v>
+        <v>62.39685106506718</v>
       </c>
       <c r="I43" t="n">
-        <v>34.61884066282538</v>
+        <v>34.61884066282539</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.69774406443828</v>
+        <v>41.69774406443831</v>
       </c>
       <c r="S43" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T43" t="n">
-        <v>132.694094987457</v>
+        <v>132.6940949874566</v>
       </c>
       <c r="U43" t="n">
-        <v>195.2497706021197</v>
+        <v>195.2497706021203</v>
       </c>
       <c r="V43" t="n">
-        <v>161.1224652033333</v>
+        <v>161.1224652033334</v>
       </c>
       <c r="W43" t="n">
-        <v>195.5078202160963</v>
+        <v>195.5078202160964</v>
       </c>
       <c r="X43" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y43" t="n">
-        <v>127.5694752316001</v>
+        <v>127.5694752316002</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>322.0772286298367</v>
       </c>
       <c r="H44" t="n">
-        <v>180.688354491725</v>
+        <v>225.8230740502262</v>
       </c>
       <c r="I44" t="n">
         <v>34.2469346398149</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.63697916278537</v>
+        <v>22.50225960428339</v>
       </c>
       <c r="T44" t="n">
         <v>122.4049485207083</v>
@@ -4155,7 +4155,7 @@
         <v>62.39685106506715</v>
       </c>
       <c r="I46" t="n">
-        <v>34.6188406628251</v>
+        <v>34.61884066282538</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>132.694094987457</v>
       </c>
       <c r="U46" t="n">
-        <v>195.2497706021201</v>
+        <v>195.2497706021198</v>
       </c>
       <c r="V46" t="n">
         <v>161.1224652033333</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>477.1596022224361</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C2" t="n">
-        <v>477.1596022224361</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D2" t="n">
-        <v>477.1596022224361</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E2" t="n">
-        <v>477.1596022224361</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F2" t="n">
+        <v>290.2572196227447</v>
+      </c>
+      <c r="G2" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="G2" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y2" t="n">
-        <v>477.1596022224361</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.3080510879349</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C3" t="n">
-        <v>111.3080510879349</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D3" t="n">
-        <v>111.3080510879349</v>
+        <v>336.5218609735422</v>
       </c>
       <c r="E3" t="n">
-        <v>111.3080510879349</v>
+        <v>177.2844059680867</v>
       </c>
       <c r="F3" t="n">
-        <v>111.3080510879349</v>
+        <v>30.7498479949717</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>30.7498479949717</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4421,40 +4421,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>487.2836868729568</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>487.2836868729568</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X3" t="n">
-        <v>487.2836868729568</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y3" t="n">
-        <v>279.5233881080029</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
         <v>19.28114311021272</v>
@@ -4527,13 +4527,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>721.6706963991336</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4652,13 +4652,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
         <v>781.4136778972854</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>908.674255485608</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>706.487660844374</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V6" t="n">
-        <v>259.0600686093459</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W6" t="n">
-        <v>259.0600686093459</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X6" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.6530896684844</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6530896684844</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>122.6530896684844</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>122.6530896684844</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>216.6737094609055</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>201.2163988395569</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>122.6530896684844</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.6530896684844</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>284.6341941966871</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C9" t="n">
-        <v>284.6341941966871</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D9" t="n">
-        <v>284.6341941966871</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="E9" t="n">
-        <v>284.6341941966871</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="F9" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>452.8495312167552</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y9" t="n">
-        <v>452.8495312167552</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="10">
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1814.226443541793</v>
+        <v>1768.635817725122</v>
       </c>
       <c r="C11" t="n">
-        <v>1537.198449955416</v>
+        <v>1491.607824138746</v>
       </c>
       <c r="D11" t="n">
-        <v>1270.867274702701</v>
+        <v>1225.27664888603</v>
       </c>
       <c r="E11" t="n">
-        <v>977.0135454584915</v>
+        <v>931.422919641821</v>
       </c>
       <c r="F11" t="n">
-        <v>657.962164022919</v>
+        <v>657.9621640229188</v>
       </c>
       <c r="G11" t="n">
-        <v>332.631630053387</v>
+        <v>332.6316300533869</v>
       </c>
       <c r="H11" t="n">
-        <v>104.5275148511384</v>
+        <v>104.5275148511383</v>
       </c>
       <c r="I11" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859798</v>
       </c>
       <c r="J11" t="n">
-        <v>243.8279252593024</v>
+        <v>243.8279252593008</v>
       </c>
       <c r="K11" t="n">
-        <v>625.1936695733949</v>
+        <v>625.1936695733933</v>
       </c>
       <c r="L11" t="n">
-        <v>1150.588225603153</v>
+        <v>1150.58822560315</v>
       </c>
       <c r="M11" t="n">
-        <v>1751.797447352349</v>
+        <v>1751.797447352346</v>
       </c>
       <c r="N11" t="n">
-        <v>2348.102865308523</v>
+        <v>2348.10286530852</v>
       </c>
       <c r="O11" t="n">
-        <v>2865.989524423015</v>
+        <v>2865.989524423012</v>
       </c>
       <c r="P11" t="n">
-        <v>3270.319423338377</v>
+        <v>3270.319423338375</v>
       </c>
       <c r="Q11" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.732578929899</v>
       </c>
       <c r="R11" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.732578929899</v>
       </c>
       <c r="S11" t="n">
-        <v>3428.412397957391</v>
+        <v>3428.412397957388</v>
       </c>
       <c r="T11" t="n">
-        <v>3350.361661631929</v>
+        <v>3304.771035815259</v>
       </c>
       <c r="U11" t="n">
-        <v>3188.590299686315</v>
+        <v>3142.999673869645</v>
       </c>
       <c r="V11" t="n">
-        <v>2949.46193569678</v>
+        <v>2903.871309880109</v>
       </c>
       <c r="W11" t="n">
-        <v>2688.627803780701</v>
+        <v>2643.03717796403</v>
       </c>
       <c r="X11" t="n">
-        <v>2407.096568873656</v>
+        <v>2361.505943056985</v>
       </c>
       <c r="Y11" t="n">
-        <v>2108.89176025188</v>
+        <v>2063.301134435209</v>
       </c>
     </row>
     <row r="12">
@@ -5114,19 +5114,19 @@
         <v>220.937241300597</v>
       </c>
       <c r="H12" t="n">
-        <v>119.1052045322124</v>
+        <v>119.1052045322123</v>
       </c>
       <c r="I12" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859798</v>
       </c>
       <c r="J12" t="n">
         <v>179.810914411636</v>
       </c>
       <c r="K12" t="n">
-        <v>494.2277915417637</v>
+        <v>494.2277915417638</v>
       </c>
       <c r="L12" t="n">
-        <v>978.4044805826618</v>
+        <v>978.404480582662</v>
       </c>
       <c r="M12" t="n">
         <v>1298.739800112364</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>490.7999111568626</v>
+        <v>490.7999111568622</v>
       </c>
       <c r="C13" t="n">
-        <v>413.7982515829907</v>
+        <v>413.7982515829903</v>
       </c>
       <c r="D13" t="n">
-        <v>355.61613552469</v>
+        <v>355.6161355246896</v>
       </c>
       <c r="E13" t="n">
-        <v>299.6375652963319</v>
+        <v>299.6375652963316</v>
       </c>
       <c r="F13" t="n">
-        <v>244.6821411524566</v>
+        <v>244.6821411524562</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9302997885904</v>
+        <v>167.93029978859</v>
       </c>
       <c r="H13" t="n">
-        <v>104.9031775006439</v>
+        <v>104.9031775006438</v>
       </c>
       <c r="I13" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859798</v>
       </c>
       <c r="J13" t="n">
-        <v>137.0106293959408</v>
+        <v>137.0106293959407</v>
       </c>
       <c r="K13" t="n">
         <v>319.1086914830886</v>
@@ -5208,19 +5208,19 @@
         <v>582.4595660889142</v>
       </c>
       <c r="M13" t="n">
-        <v>865.6171716594308</v>
+        <v>865.6171716594311</v>
       </c>
       <c r="N13" t="n">
         <v>1149.619034811413</v>
       </c>
       <c r="O13" t="n">
-        <v>1402.802877545182</v>
+        <v>1402.802877545183</v>
       </c>
       <c r="P13" t="n">
-        <v>1608.929321817165</v>
+        <v>1608.929321817166</v>
       </c>
       <c r="Q13" t="n">
-        <v>1695.926483912367</v>
+        <v>1695.926483912368</v>
       </c>
       <c r="R13" t="n">
         <v>1653.807550513945</v>
@@ -5238,13 +5238,13 @@
         <v>1042.90958264947</v>
       </c>
       <c r="W13" t="n">
-        <v>845.4269359665446</v>
+        <v>845.4269359665443</v>
       </c>
       <c r="X13" t="n">
-        <v>709.3719084225623</v>
+        <v>709.371908422562</v>
       </c>
       <c r="Y13" t="n">
-        <v>580.5138526330672</v>
+        <v>580.5138526330669</v>
       </c>
     </row>
     <row r="14">
@@ -5263,67 +5263,67 @@
         <v>1270.867274702701</v>
       </c>
       <c r="E14" t="n">
-        <v>977.0135454584913</v>
+        <v>977.0135454584916</v>
       </c>
       <c r="F14" t="n">
-        <v>657.9621640229188</v>
+        <v>657.9621640229191</v>
       </c>
       <c r="G14" t="n">
-        <v>332.631630053387</v>
+        <v>332.6316300533871</v>
       </c>
       <c r="H14" t="n">
-        <v>104.5275148511383</v>
+        <v>104.5275148511384</v>
       </c>
       <c r="I14" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="J14" t="n">
         <v>243.8279252593004</v>
       </c>
       <c r="K14" t="n">
-        <v>625.1936695733931</v>
+        <v>625.193669573393</v>
       </c>
       <c r="L14" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.58822560315</v>
       </c>
       <c r="M14" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352346</v>
       </c>
       <c r="N14" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308521</v>
       </c>
       <c r="O14" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423013</v>
       </c>
       <c r="P14" t="n">
-        <v>3270.319423338377</v>
+        <v>3270.319423338376</v>
       </c>
       <c r="Q14" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.732578929899</v>
       </c>
       <c r="R14" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.732578929899</v>
       </c>
       <c r="S14" t="n">
-        <v>3428.412397957391</v>
+        <v>3428.412397957389</v>
       </c>
       <c r="T14" t="n">
-        <v>3304.771035815261</v>
+        <v>3304.771035815259</v>
       </c>
       <c r="U14" t="n">
-        <v>3142.999673869647</v>
+        <v>3142.999673869645</v>
       </c>
       <c r="V14" t="n">
-        <v>2903.871309880112</v>
+        <v>2949.461935696781</v>
       </c>
       <c r="W14" t="n">
-        <v>2643.037177964033</v>
+        <v>2688.627803780702</v>
       </c>
       <c r="X14" t="n">
-        <v>2361.505943056988</v>
+        <v>2407.096568873657</v>
       </c>
       <c r="Y14" t="n">
-        <v>2063.301134435212</v>
+        <v>2108.89176025188</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>220.937241300597</v>
       </c>
       <c r="H15" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I15" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="J15" t="n">
-        <v>69.93465157859802</v>
+        <v>179.810914411636</v>
       </c>
       <c r="K15" t="n">
-        <v>384.3515287087259</v>
+        <v>305.1684744694734</v>
       </c>
       <c r="L15" t="n">
-        <v>868.5282177496242</v>
+        <v>535.1315803378225</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.863537279326</v>
+        <v>863.1879249046831</v>
       </c>
       <c r="N15" t="n">
-        <v>1790.779694872373</v>
+        <v>1512.215423660147</v>
       </c>
       <c r="O15" t="n">
-        <v>2039.533108956335</v>
+        <v>2039.533108956336</v>
       </c>
       <c r="P15" t="n">
         <v>2445.748972877462</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>490.7999111568625</v>
+        <v>490.7999111568627</v>
       </c>
       <c r="C16" t="n">
-        <v>413.7982515829906</v>
+        <v>413.7982515829908</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6161355246899</v>
+        <v>355.61613552469</v>
       </c>
       <c r="E16" t="n">
-        <v>299.6375652963318</v>
+        <v>299.6375652963319</v>
       </c>
       <c r="F16" t="n">
-        <v>244.6821411524564</v>
+        <v>244.6821411524566</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9302997885904</v>
+        <v>167.9302997885905</v>
       </c>
       <c r="H16" t="n">
-        <v>104.9031775006438</v>
+        <v>104.9031775006439</v>
       </c>
       <c r="I16" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="J16" t="n">
-        <v>137.0106293959408</v>
+        <v>137.0106293959407</v>
       </c>
       <c r="K16" t="n">
-        <v>319.1086914830888</v>
+        <v>319.1086914830886</v>
       </c>
       <c r="L16" t="n">
         <v>582.4595660889145</v>
       </c>
       <c r="M16" t="n">
-        <v>865.6171716594312</v>
+        <v>865.6171716594311</v>
       </c>
       <c r="N16" t="n">
         <v>1149.619034811413</v>
@@ -5454,16 +5454,16 @@
         <v>1402.802877545183</v>
       </c>
       <c r="P16" t="n">
-        <v>1608.929321817165</v>
+        <v>1608.929321817166</v>
       </c>
       <c r="Q16" t="n">
-        <v>1695.926483912367</v>
+        <v>1695.926483912368</v>
       </c>
       <c r="R16" t="n">
         <v>1653.807550513945</v>
       </c>
       <c r="S16" t="n">
-        <v>1536.915977389783</v>
+        <v>1536.915977389784</v>
       </c>
       <c r="T16" t="n">
         <v>1402.881538008514</v>
@@ -5475,13 +5475,13 @@
         <v>1042.90958264947</v>
       </c>
       <c r="W16" t="n">
-        <v>845.4269359665445</v>
+        <v>845.4269359665448</v>
       </c>
       <c r="X16" t="n">
-        <v>709.3719084225622</v>
+        <v>709.3719084225625</v>
       </c>
       <c r="Y16" t="n">
-        <v>580.5138526330671</v>
+        <v>580.5138526330674</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1792.950818160681</v>
+        <v>1792.950818160682</v>
       </c>
       <c r="C17" t="n">
-        <v>1518.962199628749</v>
+        <v>1518.96219962875</v>
       </c>
       <c r="D17" t="n">
-        <v>1255.670399430478</v>
+        <v>1255.670399430479</v>
       </c>
       <c r="E17" t="n">
-        <v>964.8560452407135</v>
+        <v>964.8560452407144</v>
       </c>
       <c r="F17" t="n">
-        <v>648.8440388595855</v>
+        <v>648.8440388595866</v>
       </c>
       <c r="G17" t="n">
-        <v>326.5528799444979</v>
+        <v>326.5528799444993</v>
       </c>
       <c r="H17" t="n">
-        <v>101.4881397966938</v>
+        <v>101.4881397966953</v>
       </c>
       <c r="I17" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J17" t="n">
-        <v>243.8279252593011</v>
+        <v>243.827925259302</v>
       </c>
       <c r="K17" t="n">
-        <v>625.1936695733943</v>
+        <v>625.1936695733946</v>
       </c>
       <c r="L17" t="n">
-        <v>1150.588225603152</v>
+        <v>1150.588225603153</v>
       </c>
       <c r="M17" t="n">
         <v>1751.797447352348</v>
@@ -5536,13 +5536,13 @@
         <v>3270.319423338377</v>
       </c>
       <c r="Q17" t="n">
-        <v>3496.732578929902</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="R17" t="n">
-        <v>3496.732578929902</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="S17" t="n">
-        <v>3431.451773011836</v>
+        <v>3431.451773011835</v>
       </c>
       <c r="T17" t="n">
         <v>3310.849785924151</v>
@@ -5591,28 +5591,28 @@
         <v>119.1052045322124</v>
       </c>
       <c r="I18" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J18" t="n">
-        <v>179.8109144116361</v>
+        <v>179.810914411636</v>
       </c>
       <c r="K18" t="n">
-        <v>494.227791541764</v>
+        <v>305.1684744694734</v>
       </c>
       <c r="L18" t="n">
-        <v>724.1908974101132</v>
+        <v>789.3451635103715</v>
       </c>
       <c r="M18" t="n">
-        <v>1141.752196116908</v>
+        <v>1109.680483040073</v>
       </c>
       <c r="N18" t="n">
-        <v>1790.779694872373</v>
+        <v>1661.667643125935</v>
       </c>
       <c r="O18" t="n">
-        <v>2039.533108956335</v>
+        <v>2188.985328422124</v>
       </c>
       <c r="P18" t="n">
-        <v>2445.748972877462</v>
+        <v>2595.201192343251</v>
       </c>
       <c r="Q18" t="n">
         <v>2664.59575085658</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>469.5242857757507</v>
+        <v>469.5242857757498</v>
       </c>
       <c r="C19" t="n">
-        <v>395.5620012563234</v>
+        <v>395.5620012563226</v>
       </c>
       <c r="D19" t="n">
-        <v>340.4192602524673</v>
+        <v>340.4192602524665</v>
       </c>
       <c r="E19" t="n">
-        <v>287.4800650785537</v>
+        <v>287.4800650785531</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5640159891229</v>
+        <v>235.5640159891225</v>
       </c>
       <c r="G19" t="n">
-        <v>161.8515496797014</v>
+        <v>161.8515496797011</v>
       </c>
       <c r="H19" t="n">
-        <v>101.8638024461993</v>
+        <v>101.8638024461992</v>
       </c>
       <c r="I19" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J19" t="n">
-        <v>139.9895208868019</v>
+        <v>139.989520886802</v>
       </c>
       <c r="K19" t="n">
-        <v>325.066474464811</v>
+        <v>325.0664744648112</v>
       </c>
       <c r="L19" t="n">
-        <v>591.3962405614977</v>
+        <v>591.396240561498</v>
       </c>
       <c r="M19" t="n">
-        <v>877.5327376228754</v>
+        <v>877.5327376228759</v>
       </c>
       <c r="N19" t="n">
         <v>1164.513492265719</v>
       </c>
       <c r="O19" t="n">
-        <v>1348.215093692347</v>
+        <v>1420.67622649035</v>
       </c>
       <c r="P19" t="n">
-        <v>1557.320429455192</v>
+        <v>1629.781562253194</v>
       </c>
       <c r="Q19" t="n">
-        <v>1647.296483041255</v>
+        <v>1647.296483041252</v>
       </c>
       <c r="R19" t="n">
-        <v>1608.216924697277</v>
+        <v>1608.216924697274</v>
       </c>
       <c r="S19" t="n">
-        <v>1494.36472662756</v>
+        <v>1494.364726627558</v>
       </c>
       <c r="T19" t="n">
-        <v>1363.369662300735</v>
+        <v>1363.369662300733</v>
       </c>
       <c r="U19" t="n">
-        <v>1169.187046847988</v>
+        <v>1169.187046847986</v>
       </c>
       <c r="V19" t="n">
-        <v>1009.47645705058</v>
+        <v>1009.476457050579</v>
       </c>
       <c r="W19" t="n">
-        <v>815.0331854220992</v>
+        <v>815.0331854220977</v>
       </c>
       <c r="X19" t="n">
-        <v>682.0175329325614</v>
+        <v>682.0175329325601</v>
       </c>
       <c r="Y19" t="n">
-        <v>556.1988521975109</v>
+        <v>556.1988521975097</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1792.950818160681</v>
+        <v>1792.95081816068</v>
       </c>
       <c r="C20" t="n">
-        <v>1518.962199628749</v>
+        <v>1518.962199628748</v>
       </c>
       <c r="D20" t="n">
-        <v>1255.670399430478</v>
+        <v>1255.670399430477</v>
       </c>
       <c r="E20" t="n">
-        <v>964.8560452407135</v>
+        <v>964.8560452407128</v>
       </c>
       <c r="F20" t="n">
-        <v>648.8440388595855</v>
+        <v>648.8440388595849</v>
       </c>
       <c r="G20" t="n">
-        <v>326.5528799444979</v>
+        <v>326.5528799444976</v>
       </c>
       <c r="H20" t="n">
-        <v>101.4881397966938</v>
+        <v>101.4881397966936</v>
       </c>
       <c r="I20" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J20" t="n">
-        <v>243.8279252593009</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K20" t="n">
         <v>625.1936695733934</v>
@@ -5767,37 +5767,37 @@
         <v>2348.102865308522</v>
       </c>
       <c r="O20" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423013</v>
       </c>
       <c r="P20" t="n">
         <v>3270.319423338377</v>
       </c>
       <c r="Q20" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.7325789299</v>
       </c>
       <c r="R20" t="n">
-        <v>3496.732578929902</v>
+        <v>3496.7325789299</v>
       </c>
       <c r="S20" t="n">
-        <v>3431.451773011835</v>
+        <v>3431.451773011834</v>
       </c>
       <c r="T20" t="n">
-        <v>3310.849785924151</v>
+        <v>3310.849785924149</v>
       </c>
       <c r="U20" t="n">
-        <v>3152.117799032982</v>
+        <v>3152.11779903298</v>
       </c>
       <c r="V20" t="n">
-        <v>2916.028810097891</v>
+        <v>2916.028810097889</v>
       </c>
       <c r="W20" t="n">
-        <v>2658.234053236256</v>
+        <v>2658.234053236255</v>
       </c>
       <c r="X20" t="n">
-        <v>2379.742193383656</v>
+        <v>2379.742193383654</v>
       </c>
       <c r="Y20" t="n">
-        <v>2084.576759816324</v>
+        <v>2084.576759816322</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>119.1052045322124</v>
       </c>
       <c r="I21" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J21" t="n">
-        <v>179.8109144116361</v>
+        <v>179.810914411636</v>
       </c>
       <c r="K21" t="n">
-        <v>494.227791541764</v>
+        <v>305.1684744694734</v>
       </c>
       <c r="L21" t="n">
-        <v>978.4044805826622</v>
+        <v>535.1315803378226</v>
       </c>
       <c r="M21" t="n">
-        <v>1298.739800112364</v>
+        <v>863.1879249046824</v>
       </c>
       <c r="N21" t="n">
-        <v>1735.787809967922</v>
+        <v>1512.215423660147</v>
       </c>
       <c r="O21" t="n">
-        <v>2263.105495264111</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P21" t="n">
         <v>2445.748972877462</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>469.5242857757507</v>
+        <v>469.5242857757498</v>
       </c>
       <c r="C22" t="n">
-        <v>395.5620012563234</v>
+        <v>395.5620012563226</v>
       </c>
       <c r="D22" t="n">
-        <v>340.4192602524673</v>
+        <v>340.4192602524665</v>
       </c>
       <c r="E22" t="n">
-        <v>287.4800650785537</v>
+        <v>287.4800650785531</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5640159891229</v>
+        <v>235.5640159891225</v>
       </c>
       <c r="G22" t="n">
-        <v>161.8515496797014</v>
+        <v>161.8515496797011</v>
       </c>
       <c r="H22" t="n">
-        <v>101.8638024461993</v>
+        <v>101.8638024461992</v>
       </c>
       <c r="I22" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9895208868019</v>
+        <v>139.989520886802</v>
       </c>
       <c r="K22" t="n">
-        <v>252.6053416668091</v>
+        <v>325.0664744648111</v>
       </c>
       <c r="L22" t="n">
-        <v>518.9351077634958</v>
+        <v>591.396240561498</v>
       </c>
       <c r="M22" t="n">
-        <v>805.0716048248735</v>
+        <v>877.5327376228759</v>
       </c>
       <c r="N22" t="n">
-        <v>1092.052359467717</v>
+        <v>1092.052359467714</v>
       </c>
       <c r="O22" t="n">
-        <v>1348.215093692347</v>
+        <v>1348.215093692345</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.320429455192</v>
+        <v>1557.320429455189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1647.296483041255</v>
+        <v>1647.296483041252</v>
       </c>
       <c r="R22" t="n">
-        <v>1608.216924697277</v>
+        <v>1608.216924697274</v>
       </c>
       <c r="S22" t="n">
-        <v>1494.36472662756</v>
+        <v>1494.364726627558</v>
       </c>
       <c r="T22" t="n">
-        <v>1363.369662300735</v>
+        <v>1363.369662300733</v>
       </c>
       <c r="U22" t="n">
-        <v>1169.187046847988</v>
+        <v>1169.187046847986</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.47645705058</v>
+        <v>1009.476457050579</v>
       </c>
       <c r="W22" t="n">
-        <v>815.0331854220992</v>
+        <v>815.0331854220977</v>
       </c>
       <c r="X22" t="n">
-        <v>682.0175329325614</v>
+        <v>682.0175329325601</v>
       </c>
       <c r="Y22" t="n">
-        <v>556.1988521975109</v>
+        <v>556.1988521975097</v>
       </c>
     </row>
     <row r="23">
@@ -5974,52 +5974,52 @@
         <v>1255.670399430478</v>
       </c>
       <c r="E23" t="n">
-        <v>964.8560452407136</v>
+        <v>964.8560452407132</v>
       </c>
       <c r="F23" t="n">
-        <v>648.8440388595856</v>
+        <v>648.8440388595852</v>
       </c>
       <c r="G23" t="n">
-        <v>326.5528799444972</v>
+        <v>326.5528799444978</v>
       </c>
       <c r="H23" t="n">
-        <v>101.4881397966931</v>
+        <v>101.4881397966938</v>
       </c>
       <c r="I23" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J23" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593006</v>
       </c>
       <c r="K23" t="n">
-        <v>625.1936695733943</v>
+        <v>625.1936695733937</v>
       </c>
       <c r="L23" t="n">
-        <v>1150.588225603152</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M23" t="n">
-        <v>1751.797447352348</v>
+        <v>1751.797447352347</v>
       </c>
       <c r="N23" t="n">
-        <v>2348.102865308523</v>
+        <v>2348.102865308522</v>
       </c>
       <c r="O23" t="n">
-        <v>2865.989524423015</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P23" t="n">
         <v>3270.319423338377</v>
       </c>
       <c r="Q23" t="n">
-        <v>3496.732578929902</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="R23" t="n">
-        <v>3496.732578929902</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="S23" t="n">
-        <v>3431.451773011836</v>
+        <v>3431.451773011835</v>
       </c>
       <c r="T23" t="n">
-        <v>3310.849785924151</v>
+        <v>3310.84978592415</v>
       </c>
       <c r="U23" t="n">
         <v>3152.117799032982</v>
@@ -6034,7 +6034,7 @@
         <v>2379.742193383656</v>
       </c>
       <c r="Y23" t="n">
-        <v>2084.576759816324</v>
+        <v>2084.576759816323</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>220.937241300597</v>
       </c>
       <c r="H24" t="n">
-        <v>119.1052045322124</v>
+        <v>119.1052045322123</v>
       </c>
       <c r="I24" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J24" t="n">
-        <v>179.8109144116361</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="K24" t="n">
-        <v>305.1684744694735</v>
+        <v>246.1973442927027</v>
       </c>
       <c r="L24" t="n">
-        <v>535.1315803378227</v>
+        <v>246.1973442927027</v>
       </c>
       <c r="M24" t="n">
-        <v>1012.640144370471</v>
+        <v>863.1879249046822</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.667643125935</v>
+        <v>1512.215423660147</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.985328422124</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P24" t="n">
-        <v>2595.201192343251</v>
+        <v>2445.748972877462</v>
       </c>
       <c r="Q24" t="n">
         <v>2664.59575085658</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2318.960381664397</v>
+        <v>469.5242857757504</v>
       </c>
       <c r="C25" t="n">
-        <v>2244.99809714497</v>
+        <v>395.5620012563231</v>
       </c>
       <c r="D25" t="n">
-        <v>2189.855356141114</v>
+        <v>340.419260252467</v>
       </c>
       <c r="E25" t="n">
-        <v>2136.9161609672</v>
+        <v>287.4800650785535</v>
       </c>
       <c r="F25" t="n">
-        <v>2085.000111877769</v>
+        <v>235.5640159891227</v>
       </c>
       <c r="G25" t="n">
-        <v>2011.287645568348</v>
+        <v>161.8515496797013</v>
       </c>
       <c r="H25" t="n">
-        <v>1951.299898334846</v>
+        <v>101.8638024461993</v>
       </c>
       <c r="I25" t="n">
-        <v>1919.370747467244</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J25" t="n">
-        <v>1989.425616775448</v>
+        <v>139.989520886802</v>
       </c>
       <c r="K25" t="n">
-        <v>2174.502570353457</v>
+        <v>325.0664744648111</v>
       </c>
       <c r="L25" t="n">
-        <v>2368.371203652142</v>
+        <v>518.9351077634944</v>
       </c>
       <c r="M25" t="n">
-        <v>2654.50770071352</v>
+        <v>805.0716048248722</v>
       </c>
       <c r="N25" t="n">
-        <v>2941.488455356363</v>
+        <v>1092.052359467716</v>
       </c>
       <c r="O25" t="n">
-        <v>3197.651189580994</v>
+        <v>1348.215093692346</v>
       </c>
       <c r="P25" t="n">
-        <v>3406.756525343838</v>
+        <v>1557.320429455191</v>
       </c>
       <c r="Q25" t="n">
-        <v>3496.732578929902</v>
+        <v>1647.296483041254</v>
       </c>
       <c r="R25" t="n">
-        <v>3457.653020585924</v>
+        <v>1608.216924697276</v>
       </c>
       <c r="S25" t="n">
-        <v>3343.800822516207</v>
+        <v>1494.364726627559</v>
       </c>
       <c r="T25" t="n">
-        <v>3212.805758189381</v>
+        <v>1363.369662300734</v>
       </c>
       <c r="U25" t="n">
-        <v>3018.623142736634</v>
+        <v>1169.187046847987</v>
       </c>
       <c r="V25" t="n">
-        <v>2858.912552939227</v>
+        <v>1009.47645705058</v>
       </c>
       <c r="W25" t="n">
-        <v>2664.469281310746</v>
+        <v>815.0331854220988</v>
       </c>
       <c r="X25" t="n">
-        <v>2531.453628821208</v>
+        <v>682.017532932561</v>
       </c>
       <c r="Y25" t="n">
-        <v>2405.634948086157</v>
+        <v>556.1988521975105</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1779.633580269253</v>
+        <v>1768.635817725125</v>
       </c>
       <c r="C26" t="n">
-        <v>1502.605586682876</v>
+        <v>1491.607824138748</v>
       </c>
       <c r="D26" t="n">
         <v>1236.27441143016</v>
@@ -6220,37 +6220,37 @@
         <v>298.0387667808467</v>
       </c>
       <c r="H26" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="I26" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="J26" t="n">
-        <v>243.8279252593004</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K26" t="n">
-        <v>625.1936695733931</v>
+        <v>625.1936695733943</v>
       </c>
       <c r="L26" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M26" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N26" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O26" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423015</v>
       </c>
       <c r="P26" t="n">
         <v>3270.319423338377</v>
       </c>
       <c r="Q26" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.732578929902</v>
       </c>
       <c r="R26" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.732578929902</v>
       </c>
       <c r="S26" t="n">
         <v>3428.412397957391</v>
@@ -6259,7 +6259,7 @@
         <v>3304.771035815261</v>
       </c>
       <c r="U26" t="n">
-        <v>3142.999673869647</v>
+        <v>3142.999673869648</v>
       </c>
       <c r="V26" t="n">
         <v>2903.871309880112</v>
@@ -6299,31 +6299,31 @@
         <v>220.937241300597</v>
       </c>
       <c r="H27" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I27" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="J27" t="n">
-        <v>179.8109144116361</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="K27" t="n">
-        <v>305.1684744694735</v>
+        <v>384.3515287087259</v>
       </c>
       <c r="L27" t="n">
-        <v>535.1315803378227</v>
+        <v>868.5282177496242</v>
       </c>
       <c r="M27" t="n">
-        <v>863.1879249046822</v>
+        <v>1485.518798361604</v>
       </c>
       <c r="N27" t="n">
-        <v>1512.215423660147</v>
+        <v>2134.546297117068</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.533108956335</v>
+        <v>2661.863982413257</v>
       </c>
       <c r="P27" t="n">
-        <v>2445.748972877462</v>
+        <v>2664.59575085658</v>
       </c>
       <c r="Q27" t="n">
         <v>2664.59575085658</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>490.7999111568626</v>
+        <v>490.799911156863</v>
       </c>
       <c r="C28" t="n">
-        <v>413.7982515829906</v>
+        <v>413.798251582991</v>
       </c>
       <c r="D28" t="n">
-        <v>355.6161355246899</v>
+        <v>355.6161355246903</v>
       </c>
       <c r="E28" t="n">
-        <v>299.6375652963317</v>
+        <v>299.6375652963321</v>
       </c>
       <c r="F28" t="n">
-        <v>244.6821411524563</v>
+        <v>244.6821411524567</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9302997885903</v>
+        <v>167.9302997885906</v>
       </c>
       <c r="H28" t="n">
-        <v>104.9031775006438</v>
+        <v>104.9031775006439</v>
       </c>
       <c r="I28" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="J28" t="n">
         <v>137.0106293959408</v>
       </c>
       <c r="K28" t="n">
-        <v>319.1086914830887</v>
+        <v>319.1086914830886</v>
       </c>
       <c r="L28" t="n">
-        <v>582.4595660889144</v>
+        <v>582.4595660889142</v>
       </c>
       <c r="M28" t="n">
-        <v>865.6171716594309</v>
+        <v>865.6171716594311</v>
       </c>
       <c r="N28" t="n">
         <v>1149.619034811413</v>
@@ -6423,13 +6423,13 @@
         <v>1042.909582649471</v>
       </c>
       <c r="W28" t="n">
-        <v>845.426935966545</v>
+        <v>845.4269359665452</v>
       </c>
       <c r="X28" t="n">
-        <v>709.3719084225625</v>
+        <v>709.3719084225628</v>
       </c>
       <c r="Y28" t="n">
-        <v>580.5138526330674</v>
+        <v>580.5138526330677</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1779.633580269253</v>
+        <v>1814.226443541793</v>
       </c>
       <c r="C29" t="n">
-        <v>1502.605586682876</v>
+        <v>1537.198449955416</v>
       </c>
       <c r="D29" t="n">
-        <v>1236.27441143016</v>
+        <v>1270.867274702701</v>
       </c>
       <c r="E29" t="n">
-        <v>942.4206821859513</v>
+        <v>977.0135454584915</v>
       </c>
       <c r="F29" t="n">
-        <v>623.3693007503787</v>
+        <v>657.962164022919</v>
       </c>
       <c r="G29" t="n">
-        <v>298.0387667808467</v>
+        <v>332.631630053387</v>
       </c>
       <c r="H29" t="n">
-        <v>69.93465157859804</v>
+        <v>104.5275148511383</v>
       </c>
       <c r="I29" t="n">
         <v>69.93465157859804</v>
       </c>
       <c r="J29" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593009</v>
       </c>
       <c r="K29" t="n">
         <v>625.1936695733934</v>
       </c>
       <c r="L29" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M29" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N29" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O29" t="n">
-        <v>2865.989524423015</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P29" t="n">
         <v>3270.319423338377</v>
@@ -6490,25 +6490,25 @@
         <v>3496.732578929902</v>
       </c>
       <c r="S29" t="n">
-        <v>3439.410160501519</v>
+        <v>3474.00302377406</v>
       </c>
       <c r="T29" t="n">
-        <v>3315.76879835939</v>
+        <v>3350.36166163193</v>
       </c>
       <c r="U29" t="n">
-        <v>3153.997436413776</v>
+        <v>3188.590299686316</v>
       </c>
       <c r="V29" t="n">
-        <v>2914.869072424241</v>
+        <v>2949.461935696781</v>
       </c>
       <c r="W29" t="n">
-        <v>2654.034940508162</v>
+        <v>2688.627803780702</v>
       </c>
       <c r="X29" t="n">
-        <v>2372.503705601117</v>
+        <v>2407.096568873657</v>
       </c>
       <c r="Y29" t="n">
-        <v>2074.29889697934</v>
+        <v>2108.89176025188</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>69.93465157859804</v>
       </c>
       <c r="J30" t="n">
-        <v>179.8109144116361</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="K30" t="n">
-        <v>305.1684744694735</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="L30" t="n">
-        <v>535.1315803378227</v>
+        <v>554.1113406194962</v>
       </c>
       <c r="M30" t="n">
-        <v>1152.122160949802</v>
+        <v>1171.101921231476</v>
       </c>
       <c r="N30" t="n">
-        <v>1801.149659705266</v>
+        <v>1790.779694872373</v>
       </c>
       <c r="O30" t="n">
-        <v>2328.467345001455</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P30" t="n">
-        <v>2595.201192343251</v>
+        <v>2445.748972877462</v>
       </c>
       <c r="Q30" t="n">
         <v>2664.59575085658</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>490.799911156863</v>
+        <v>490.7999111568626</v>
       </c>
       <c r="C31" t="n">
-        <v>413.798251582991</v>
+        <v>413.7982515829907</v>
       </c>
       <c r="D31" t="n">
-        <v>355.6161355246903</v>
+        <v>355.61613552469</v>
       </c>
       <c r="E31" t="n">
-        <v>299.6375652963321</v>
+        <v>299.6375652963319</v>
       </c>
       <c r="F31" t="n">
-        <v>244.6821411524567</v>
+        <v>244.6821411524565</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9302997885907</v>
+        <v>167.9302997885905</v>
       </c>
       <c r="H31" t="n">
-        <v>104.903177500644</v>
+        <v>104.9031775006439</v>
       </c>
       <c r="I31" t="n">
         <v>69.93465157859804</v>
@@ -6624,13 +6624,13 @@
         <v>137.0106293959408</v>
       </c>
       <c r="K31" t="n">
-        <v>319.1086914830887</v>
+        <v>319.1086914830888</v>
       </c>
       <c r="L31" t="n">
-        <v>582.4595660889142</v>
+        <v>582.4595660889145</v>
       </c>
       <c r="M31" t="n">
-        <v>865.6171716594308</v>
+        <v>865.6171716594311</v>
       </c>
       <c r="N31" t="n">
         <v>1149.619034811413</v>
@@ -6654,19 +6654,19 @@
         <v>1402.881538008514</v>
       </c>
       <c r="U31" t="n">
-        <v>1205.659547501323</v>
+        <v>1205.659547501322</v>
       </c>
       <c r="V31" t="n">
-        <v>1042.909582649471</v>
+        <v>1042.90958264947</v>
       </c>
       <c r="W31" t="n">
-        <v>845.4269359665452</v>
+        <v>845.4269359665448</v>
       </c>
       <c r="X31" t="n">
-        <v>709.3719084225629</v>
+        <v>709.3719084225625</v>
       </c>
       <c r="Y31" t="n">
-        <v>580.5138526330677</v>
+        <v>580.5138526330672</v>
       </c>
     </row>
     <row r="32">
@@ -6691,16 +6691,16 @@
         <v>648.8440388595852</v>
       </c>
       <c r="G32" t="n">
-        <v>326.5528799444978</v>
+        <v>326.5528799444976</v>
       </c>
       <c r="H32" t="n">
-        <v>101.4881397966938</v>
+        <v>101.4881397966935</v>
       </c>
       <c r="I32" t="n">
         <v>69.93465157859802</v>
       </c>
       <c r="J32" t="n">
-        <v>243.8279252593008</v>
+        <v>243.8279252593006</v>
       </c>
       <c r="K32" t="n">
         <v>625.1936695733934</v>
@@ -6709,10 +6709,10 @@
         <v>1150.588225603151</v>
       </c>
       <c r="M32" t="n">
-        <v>1751.797447352348</v>
+        <v>1751.797447352347</v>
       </c>
       <c r="N32" t="n">
-        <v>2348.102865308523</v>
+        <v>2348.102865308522</v>
       </c>
       <c r="O32" t="n">
         <v>2865.989524423014</v>
@@ -6730,19 +6730,19 @@
         <v>3431.451773011835</v>
       </c>
       <c r="T32" t="n">
-        <v>3310.84978592415</v>
+        <v>3310.849785924151</v>
       </c>
       <c r="U32" t="n">
-        <v>3152.117799032982</v>
+        <v>3152.117799032981</v>
       </c>
       <c r="V32" t="n">
-        <v>2916.028810097891</v>
+        <v>2916.02881009789</v>
       </c>
       <c r="W32" t="n">
-        <v>2658.234053236256</v>
+        <v>2658.234053236255</v>
       </c>
       <c r="X32" t="n">
-        <v>2379.742193383656</v>
+        <v>2379.742193383655</v>
       </c>
       <c r="Y32" t="n">
         <v>2084.576759816323</v>
@@ -6785,19 +6785,19 @@
         <v>494.227791541764</v>
       </c>
       <c r="L33" t="n">
-        <v>847.3594484928267</v>
+        <v>978.4044805826622</v>
       </c>
       <c r="M33" t="n">
-        <v>1167.694768022528</v>
+        <v>1595.395061194642</v>
       </c>
       <c r="N33" t="n">
-        <v>1512.215423660147</v>
+        <v>2244.422559950106</v>
       </c>
       <c r="O33" t="n">
-        <v>2039.533108956335</v>
+        <v>2258.379886935453</v>
       </c>
       <c r="P33" t="n">
-        <v>2445.748972877462</v>
+        <v>2664.59575085658</v>
       </c>
       <c r="Q33" t="n">
         <v>2664.59575085658</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>469.5242857757506</v>
+        <v>469.5242857757505</v>
       </c>
       <c r="C34" t="n">
-        <v>395.5620012563233</v>
+        <v>395.5620012563232</v>
       </c>
       <c r="D34" t="n">
-        <v>340.4192602524672</v>
+        <v>340.419260252467</v>
       </c>
       <c r="E34" t="n">
-        <v>287.4800650785536</v>
+        <v>287.4800650785535</v>
       </c>
       <c r="F34" t="n">
         <v>235.5640159891228</v>
       </c>
       <c r="G34" t="n">
-        <v>161.8515496797014</v>
+        <v>161.8515496797013</v>
       </c>
       <c r="H34" t="n">
         <v>101.8638024461993</v>
@@ -6858,16 +6858,16 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J34" t="n">
-        <v>139.9895208868019</v>
+        <v>139.989520886802</v>
       </c>
       <c r="K34" t="n">
-        <v>325.066474464811</v>
+        <v>325.0664744648111</v>
       </c>
       <c r="L34" t="n">
-        <v>591.3962405614977</v>
+        <v>591.3962405614978</v>
       </c>
       <c r="M34" t="n">
-        <v>877.5327376228755</v>
+        <v>877.5327376228756</v>
       </c>
       <c r="N34" t="n">
         <v>1164.513492265719</v>
@@ -6876,7 +6876,7 @@
         <v>1420.67622649035</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.320429455191</v>
+        <v>1629.781562253194</v>
       </c>
       <c r="Q34" t="n">
         <v>1647.296483041254</v>
@@ -6885,7 +6885,7 @@
         <v>1608.216924697276</v>
       </c>
       <c r="S34" t="n">
-        <v>1494.36472662756</v>
+        <v>1494.364726627559</v>
       </c>
       <c r="T34" t="n">
         <v>1363.369662300734</v>
@@ -6897,13 +6897,13 @@
         <v>1009.47645705058</v>
       </c>
       <c r="W34" t="n">
-        <v>815.033185422099</v>
+        <v>815.0331854220989</v>
       </c>
       <c r="X34" t="n">
-        <v>682.0175329325613</v>
+        <v>682.0175329325612</v>
       </c>
       <c r="Y34" t="n">
-        <v>556.1988521975107</v>
+        <v>556.1988521975106</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1792.95081816068</v>
+        <v>1792.950818160681</v>
       </c>
       <c r="C35" t="n">
-        <v>1518.962199628748</v>
+        <v>1518.962199628749</v>
       </c>
       <c r="D35" t="n">
-        <v>1255.670399430477</v>
+        <v>1255.670399430478</v>
       </c>
       <c r="E35" t="n">
-        <v>964.8560452407128</v>
+        <v>964.8560452407132</v>
       </c>
       <c r="F35" t="n">
-        <v>648.844038859585</v>
+        <v>648.8440388595852</v>
       </c>
       <c r="G35" t="n">
-        <v>326.552879944498</v>
+        <v>326.5528799444978</v>
       </c>
       <c r="H35" t="n">
         <v>101.4881397966937</v>
       </c>
       <c r="I35" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J35" t="n">
-        <v>243.8279252593009</v>
+        <v>243.8279252593008</v>
       </c>
       <c r="K35" t="n">
         <v>625.1936695733934</v>
       </c>
       <c r="L35" t="n">
-        <v>1150.588225603152</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M35" t="n">
-        <v>1751.797447352348</v>
+        <v>1751.797447352347</v>
       </c>
       <c r="N35" t="n">
-        <v>2348.102865308523</v>
+        <v>2348.102865308522</v>
       </c>
       <c r="O35" t="n">
         <v>2865.989524423014</v>
@@ -6958,16 +6958,16 @@
         <v>3270.319423338377</v>
       </c>
       <c r="Q35" t="n">
-        <v>3496.732578929902</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="R35" t="n">
-        <v>3496.732578929902</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="S35" t="n">
-        <v>3431.451773011836</v>
+        <v>3431.451773011835</v>
       </c>
       <c r="T35" t="n">
-        <v>3310.849785924151</v>
+        <v>3310.84978592415</v>
       </c>
       <c r="U35" t="n">
         <v>3152.117799032981</v>
@@ -6982,7 +6982,7 @@
         <v>2379.742193383655</v>
       </c>
       <c r="Y35" t="n">
-        <v>2084.576759816322</v>
+        <v>2084.576759816323</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>220.937241300597</v>
       </c>
       <c r="H36" t="n">
-        <v>119.1052045322124</v>
+        <v>119.1052045322123</v>
       </c>
       <c r="I36" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J36" t="n">
         <v>179.8109144116361</v>
       </c>
       <c r="K36" t="n">
-        <v>494.227791541764</v>
+        <v>246.1973442927027</v>
       </c>
       <c r="L36" t="n">
-        <v>978.4044805826622</v>
+        <v>246.1973442927027</v>
       </c>
       <c r="M36" t="n">
-        <v>1298.739800112364</v>
+        <v>863.1879249046822</v>
       </c>
       <c r="N36" t="n">
-        <v>1643.260455749982</v>
+        <v>1512.215423660147</v>
       </c>
       <c r="O36" t="n">
         <v>2039.533108956335</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2318.960381664398</v>
+        <v>469.5242857757505</v>
       </c>
       <c r="C37" t="n">
-        <v>2244.99809714497</v>
+        <v>395.5620012563232</v>
       </c>
       <c r="D37" t="n">
-        <v>2189.855356141114</v>
+        <v>340.419260252467</v>
       </c>
       <c r="E37" t="n">
-        <v>2136.916160967201</v>
+        <v>287.4800650785535</v>
       </c>
       <c r="F37" t="n">
-        <v>2085.00011187777</v>
+        <v>235.5640159891228</v>
       </c>
       <c r="G37" t="n">
-        <v>2011.287645568349</v>
+        <v>161.8515496797013</v>
       </c>
       <c r="H37" t="n">
-        <v>1951.299898334847</v>
+        <v>101.8638024461993</v>
       </c>
       <c r="I37" t="n">
-        <v>1919.370747467246</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J37" t="n">
-        <v>1989.42561677545</v>
+        <v>139.989520886802</v>
       </c>
       <c r="K37" t="n">
-        <v>2174.502570353459</v>
+        <v>325.0664744648111</v>
       </c>
       <c r="L37" t="n">
-        <v>2368.371203652142</v>
+        <v>591.3962405614978</v>
       </c>
       <c r="M37" t="n">
-        <v>2654.50770071352</v>
+        <v>877.5327376228756</v>
       </c>
       <c r="N37" t="n">
-        <v>2941.488455356363</v>
+        <v>1164.513492265719</v>
       </c>
       <c r="O37" t="n">
-        <v>3197.651189580994</v>
+        <v>1348.215093692346</v>
       </c>
       <c r="P37" t="n">
-        <v>3406.756525343838</v>
+        <v>1557.320429455191</v>
       </c>
       <c r="Q37" t="n">
-        <v>3496.732578929902</v>
+        <v>1647.296483041254</v>
       </c>
       <c r="R37" t="n">
-        <v>3457.653020585924</v>
+        <v>1608.216924697276</v>
       </c>
       <c r="S37" t="n">
-        <v>3343.800822516207</v>
+        <v>1494.364726627559</v>
       </c>
       <c r="T37" t="n">
-        <v>3212.805758189381</v>
+        <v>1363.369662300734</v>
       </c>
       <c r="U37" t="n">
-        <v>3018.623142736634</v>
+        <v>1169.187046847987</v>
       </c>
       <c r="V37" t="n">
-        <v>2858.912552939227</v>
+        <v>1009.47645705058</v>
       </c>
       <c r="W37" t="n">
-        <v>2664.469281310746</v>
+        <v>815.0331854220989</v>
       </c>
       <c r="X37" t="n">
-        <v>2531.453628821208</v>
+        <v>682.0175329325612</v>
       </c>
       <c r="Y37" t="n">
-        <v>2405.634948086158</v>
+        <v>556.1988521975106</v>
       </c>
     </row>
     <row r="38">
@@ -7165,46 +7165,46 @@
         <v>648.8440388595855</v>
       </c>
       <c r="G38" t="n">
-        <v>326.5528799444978</v>
+        <v>326.5528799444979</v>
       </c>
       <c r="H38" t="n">
-        <v>101.4881397966937</v>
+        <v>101.4881397966938</v>
       </c>
       <c r="I38" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859806</v>
       </c>
       <c r="J38" t="n">
-        <v>243.8279252593008</v>
+        <v>243.8279252593009</v>
       </c>
       <c r="K38" t="n">
-        <v>625.1936695733934</v>
+        <v>625.1936695733935</v>
       </c>
       <c r="L38" t="n">
         <v>1150.588225603151</v>
       </c>
       <c r="M38" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N38" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O38" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423015</v>
       </c>
       <c r="P38" t="n">
-        <v>3270.319423338377</v>
+        <v>3270.319423338378</v>
       </c>
       <c r="Q38" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.732578929903</v>
       </c>
       <c r="R38" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.732578929902</v>
       </c>
       <c r="S38" t="n">
-        <v>3431.451773011835</v>
+        <v>3431.451773011836</v>
       </c>
       <c r="T38" t="n">
-        <v>3310.84978592415</v>
+        <v>3310.849785924151</v>
       </c>
       <c r="U38" t="n">
         <v>3152.117799032982</v>
@@ -7241,40 +7241,40 @@
         <v>505.0080477011419</v>
       </c>
       <c r="F39" t="n">
-        <v>358.4734897280268</v>
+        <v>358.4734897280269</v>
       </c>
       <c r="G39" t="n">
-        <v>220.937241300597</v>
+        <v>220.9372413005971</v>
       </c>
       <c r="H39" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I39" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859806</v>
       </c>
       <c r="J39" t="n">
         <v>179.8109144116361</v>
       </c>
       <c r="K39" t="n">
-        <v>305.1684744694735</v>
+        <v>494.227791541764</v>
       </c>
       <c r="L39" t="n">
-        <v>761.6993833540985</v>
+        <v>978.4044805826622</v>
       </c>
       <c r="M39" t="n">
-        <v>1082.0347028838</v>
+        <v>1512.215423660146</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.062201639265</v>
+        <v>1512.215423660146</v>
       </c>
       <c r="O39" t="n">
-        <v>2258.379886935453</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P39" t="n">
-        <v>2664.59575085658</v>
+        <v>2445.748972877461</v>
       </c>
       <c r="Q39" t="n">
-        <v>2664.59575085658</v>
+        <v>2664.595750856579</v>
       </c>
       <c r="R39" t="n">
         <v>2637.594782241915</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>469.5242857757505</v>
+        <v>469.5242857757509</v>
       </c>
       <c r="C40" t="n">
-        <v>395.5620012563232</v>
+        <v>395.5620012563235</v>
       </c>
       <c r="D40" t="n">
-        <v>340.419260252467</v>
+        <v>340.4192602524673</v>
       </c>
       <c r="E40" t="n">
-        <v>287.4800650785535</v>
+        <v>287.4800650785538</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5640159891228</v>
+        <v>235.5640159891229</v>
       </c>
       <c r="G40" t="n">
-        <v>161.8515496797013</v>
+        <v>161.8515496797015</v>
       </c>
       <c r="H40" t="n">
-        <v>101.8638024461993</v>
+        <v>101.8638024461994</v>
       </c>
       <c r="I40" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859806</v>
       </c>
       <c r="J40" t="n">
         <v>139.989520886802</v>
       </c>
       <c r="K40" t="n">
-        <v>325.0664744648111</v>
+        <v>325.066474464811</v>
       </c>
       <c r="L40" t="n">
-        <v>591.3962405614978</v>
+        <v>518.9351077634963</v>
       </c>
       <c r="M40" t="n">
-        <v>877.5327376228756</v>
+        <v>805.0716048248739</v>
       </c>
       <c r="N40" t="n">
-        <v>1092.052359467716</v>
+        <v>1092.052359467717</v>
       </c>
       <c r="O40" t="n">
-        <v>1348.215093692346</v>
+        <v>1348.215093692348</v>
       </c>
       <c r="P40" t="n">
-        <v>1557.320429455191</v>
+        <v>1557.320429455192</v>
       </c>
       <c r="Q40" t="n">
-        <v>1647.296483041254</v>
+        <v>1647.296483041255</v>
       </c>
       <c r="R40" t="n">
-        <v>1608.216924697276</v>
+        <v>1608.216924697277</v>
       </c>
       <c r="S40" t="n">
-        <v>1494.364726627559</v>
+        <v>1494.36472662756</v>
       </c>
       <c r="T40" t="n">
-        <v>1363.369662300734</v>
+        <v>1363.369662300735</v>
       </c>
       <c r="U40" t="n">
-        <v>1169.187046847987</v>
+        <v>1169.187046847988</v>
       </c>
       <c r="V40" t="n">
-        <v>1009.47645705058</v>
+        <v>1009.476457050581</v>
       </c>
       <c r="W40" t="n">
-        <v>815.0331854220989</v>
+        <v>815.0331854220995</v>
       </c>
       <c r="X40" t="n">
-        <v>682.0175329325612</v>
+        <v>682.0175329325616</v>
       </c>
       <c r="Y40" t="n">
-        <v>556.1988521975106</v>
+        <v>556.1988521975111</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1768.635817725125</v>
+        <v>1779.633580269253</v>
       </c>
       <c r="C41" t="n">
-        <v>1491.607824138748</v>
+        <v>1502.605586682876</v>
       </c>
       <c r="D41" t="n">
-        <v>1225.276648886033</v>
+        <v>1236.27441143016</v>
       </c>
       <c r="E41" t="n">
-        <v>931.4229196418237</v>
+        <v>942.4206821859513</v>
       </c>
       <c r="F41" t="n">
-        <v>612.3715382062511</v>
+        <v>623.3693007503787</v>
       </c>
       <c r="G41" t="n">
-        <v>287.0410042367191</v>
+        <v>298.0387667808467</v>
       </c>
       <c r="H41" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="I41" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J41" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593009</v>
       </c>
       <c r="K41" t="n">
         <v>625.1936695733934</v>
@@ -7420,43 +7420,43 @@
         <v>1150.588225603151</v>
       </c>
       <c r="M41" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N41" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O41" t="n">
         <v>2865.989524423015</v>
       </c>
       <c r="P41" t="n">
-        <v>3270.319423338377</v>
+        <v>3270.319423338378</v>
       </c>
       <c r="Q41" t="n">
         <v>3496.732578929902</v>
       </c>
       <c r="R41" t="n">
-        <v>3496.732578929902</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="S41" t="n">
-        <v>3428.412397957391</v>
+        <v>3439.410160501519</v>
       </c>
       <c r="T41" t="n">
-        <v>3304.771035815261</v>
+        <v>3315.76879835939</v>
       </c>
       <c r="U41" t="n">
-        <v>3142.999673869648</v>
+        <v>3153.997436413776</v>
       </c>
       <c r="V41" t="n">
-        <v>2903.871309880112</v>
+        <v>2914.869072424241</v>
       </c>
       <c r="W41" t="n">
-        <v>2643.037177964033</v>
+        <v>2654.034940508162</v>
       </c>
       <c r="X41" t="n">
-        <v>2361.505943056988</v>
+        <v>2372.503705601117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2063.301134435212</v>
+        <v>2074.29889697934</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>220.937241300597</v>
       </c>
       <c r="H42" t="n">
-        <v>119.1052045322124</v>
+        <v>119.1052045322123</v>
       </c>
       <c r="I42" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J42" t="n">
         <v>179.8109144116361</v>
@@ -7496,22 +7496,22 @@
         <v>494.227791541764</v>
       </c>
       <c r="L42" t="n">
-        <v>897.7862212784936</v>
+        <v>978.4044805826622</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.776801890473</v>
+        <v>1595.395061194642</v>
       </c>
       <c r="N42" t="n">
-        <v>2163.804300645937</v>
+        <v>2244.422559950106</v>
       </c>
       <c r="O42" t="n">
-        <v>2412.5577147299</v>
+        <v>2664.595750856579</v>
       </c>
       <c r="P42" t="n">
-        <v>2595.201192343251</v>
+        <v>2664.595750856579</v>
       </c>
       <c r="Q42" t="n">
-        <v>2664.59575085658</v>
+        <v>2664.595750856579</v>
       </c>
       <c r="R42" t="n">
         <v>2637.594782241915</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>490.7999111568631</v>
+        <v>490.7999111568627</v>
       </c>
       <c r="C43" t="n">
-        <v>413.7982515829912</v>
+        <v>413.7982515829908</v>
       </c>
       <c r="D43" t="n">
         <v>355.61613552469</v>
@@ -7566,7 +7566,7 @@
         <v>104.9031775006439</v>
       </c>
       <c r="I43" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J43" t="n">
         <v>137.0106293959408</v>
@@ -7599,7 +7599,7 @@
         <v>1536.915977389784</v>
       </c>
       <c r="T43" t="n">
-        <v>1402.881538008514</v>
+        <v>1402.881538008515</v>
       </c>
       <c r="U43" t="n">
         <v>1205.659547501323</v>
@@ -7608,13 +7608,13 @@
         <v>1042.909582649471</v>
       </c>
       <c r="W43" t="n">
-        <v>845.4269359665452</v>
+        <v>845.426935966545</v>
       </c>
       <c r="X43" t="n">
-        <v>709.3719084225629</v>
+        <v>709.3719084225627</v>
       </c>
       <c r="Y43" t="n">
-        <v>580.5138526330678</v>
+        <v>580.5138526330674</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1768.635817725125</v>
+        <v>1814.226443541793</v>
       </c>
       <c r="C44" t="n">
-        <v>1491.607824138748</v>
+        <v>1537.198449955416</v>
       </c>
       <c r="D44" t="n">
-        <v>1225.276648886033</v>
+        <v>1270.867274702701</v>
       </c>
       <c r="E44" t="n">
-        <v>931.4229196418237</v>
+        <v>977.0135454584915</v>
       </c>
       <c r="F44" t="n">
-        <v>612.3715382062511</v>
+        <v>657.962164022919</v>
       </c>
       <c r="G44" t="n">
-        <v>287.0410042367191</v>
+        <v>332.631630053387</v>
       </c>
       <c r="H44" t="n">
         <v>104.5275148511383</v>
@@ -7648,22 +7648,22 @@
         <v>69.93465157859804</v>
       </c>
       <c r="J44" t="n">
-        <v>243.8279252593009</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K44" t="n">
-        <v>625.1936695733934</v>
+        <v>625.1936695733943</v>
       </c>
       <c r="L44" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M44" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N44" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O44" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423015</v>
       </c>
       <c r="P44" t="n">
         <v>3270.319423338377</v>
@@ -7675,25 +7675,25 @@
         <v>3496.732578929902</v>
       </c>
       <c r="S44" t="n">
-        <v>3428.412397957391</v>
+        <v>3474.00302377406</v>
       </c>
       <c r="T44" t="n">
-        <v>3304.771035815261</v>
+        <v>3350.36166163193</v>
       </c>
       <c r="U44" t="n">
-        <v>3142.999673869648</v>
+        <v>3188.590299686316</v>
       </c>
       <c r="V44" t="n">
-        <v>2903.871309880112</v>
+        <v>2949.461935696781</v>
       </c>
       <c r="W44" t="n">
-        <v>2643.037177964033</v>
+        <v>2688.627803780702</v>
       </c>
       <c r="X44" t="n">
-        <v>2361.505943056988</v>
+        <v>2407.096568873657</v>
       </c>
       <c r="Y44" t="n">
-        <v>2063.301134435212</v>
+        <v>2108.89176025188</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>179.8109144116361</v>
       </c>
       <c r="K45" t="n">
-        <v>494.227791541764</v>
+        <v>246.1973442927027</v>
       </c>
       <c r="L45" t="n">
-        <v>724.1908974101132</v>
+        <v>246.1973442927027</v>
       </c>
       <c r="M45" t="n">
-        <v>1236.212530678247</v>
+        <v>863.1879249046822</v>
       </c>
       <c r="N45" t="n">
-        <v>1885.240029433711</v>
+        <v>1512.215423660147</v>
       </c>
       <c r="O45" t="n">
-        <v>2412.5577147299</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P45" t="n">
-        <v>2595.201192343251</v>
+        <v>2445.748972877462</v>
       </c>
       <c r="Q45" t="n">
         <v>2664.59575085658</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>490.7999111568624</v>
+        <v>490.7999111568625</v>
       </c>
       <c r="C46" t="n">
-        <v>413.7982515829905</v>
+        <v>413.7982515829906</v>
       </c>
       <c r="D46" t="n">
-        <v>355.6161355246898</v>
+        <v>355.6161355246899</v>
       </c>
       <c r="E46" t="n">
-        <v>299.6375652963317</v>
+        <v>299.6375652963318</v>
       </c>
       <c r="F46" t="n">
-        <v>244.6821411524563</v>
+        <v>244.6821411524564</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9302997885902</v>
+        <v>167.9302997885905</v>
       </c>
       <c r="H46" t="n">
-        <v>104.9031775006436</v>
+        <v>104.9031775006439</v>
       </c>
       <c r="I46" t="n">
         <v>69.93465157859804</v>
       </c>
       <c r="J46" t="n">
-        <v>137.0106293959409</v>
+        <v>137.0106293959408</v>
       </c>
       <c r="K46" t="n">
         <v>319.1086914830888</v>
       </c>
       <c r="L46" t="n">
-        <v>582.4595660889147</v>
+        <v>582.4595660889145</v>
       </c>
       <c r="M46" t="n">
-        <v>865.6171716594313</v>
+        <v>865.6171716594311</v>
       </c>
       <c r="N46" t="n">
         <v>1149.619034811413</v>
@@ -7848,10 +7848,10 @@
         <v>845.4269359665448</v>
       </c>
       <c r="X46" t="n">
-        <v>709.3719084225625</v>
+        <v>709.3719084225623</v>
       </c>
       <c r="Y46" t="n">
-        <v>580.513852633067</v>
+        <v>580.5138526330672</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>244.7225752110828</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,16 +8300,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>136.7337694782927</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>156.6945545306537</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>204.8984388542243</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11156,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>204.8984388542243</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>45.13471955850366</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>45.134719558501</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.13471955850102</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>45.13471955850449</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10.88778491868766</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>10.88778491868695</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>34.24693463981494</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>10.88778491868701</v>
+        <v>45.13471955850198</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>10.88778491868632</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.2469346398149</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>10.88778491868744</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>45.13471955850119</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>45.13471955850198</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>633523.0107952559</v>
+        <v>633523.0107952558</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>633523.0107952559</v>
+        <v>633523.0107952557</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>633523.0107952559</v>
+        <v>633523.0107952558</v>
       </c>
     </row>
     <row r="16">
@@ -26316,37 +26316,37 @@
         <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
-        <v>797012.8200327405</v>
+        <v>797012.8200327398</v>
       </c>
       <c r="F2" t="n">
         <v>797012.8200327401</v>
       </c>
       <c r="G2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="H2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.725617676</v>
       </c>
       <c r="I2" t="n">
-        <v>800515.7256176753</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="J2" t="n">
         <v>797012.8200327401</v>
       </c>
       <c r="K2" t="n">
-        <v>797012.8200327402</v>
+        <v>797012.82003274</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.725617676</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.725617676</v>
       </c>
       <c r="N2" t="n">
         <v>800515.7256176762</v>
@@ -26355,7 +26355,7 @@
         <v>797012.8200327401</v>
       </c>
       <c r="P2" t="n">
-        <v>797012.8200327399</v>
+        <v>797012.8200327401</v>
       </c>
     </row>
     <row r="3">
@@ -26374,37 +26374,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>703589.2920394258</v>
+        <v>703589.2920394259</v>
       </c>
       <c r="F3" t="n">
-        <v>2.695895773285884e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2407.185043120069</v>
+        <v>2407.18504312033</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.166300419048639e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>133464.9000523818</v>
+        <v>133464.9000523819</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4814.370086240195</v>
+        <v>4814.370086240319</v>
       </c>
       <c r="M3" t="n">
-        <v>157788.2115544436</v>
+        <v>157788.2115544435</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.949148327184957e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>67997.77241015551</v>
+        <v>67997.77241015549</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279125.0601321633</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="C4" t="n">
-        <v>279125.0601321633</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="D4" t="n">
         <v>279125.0601321634</v>
@@ -26429,37 +26429,37 @@
         <v>93088.76706036454</v>
       </c>
       <c r="F4" t="n">
-        <v>93088.76706036451</v>
+        <v>93088.76706036452</v>
       </c>
       <c r="G4" t="n">
-        <v>95124.21672118652</v>
+        <v>95124.21672118662</v>
       </c>
       <c r="H4" t="n">
-        <v>95124.21672118652</v>
+        <v>95124.21672118662</v>
       </c>
       <c r="I4" t="n">
-        <v>95124.21672118652</v>
+        <v>95124.21672118656</v>
       </c>
       <c r="J4" t="n">
         <v>93088.76706036449</v>
       </c>
       <c r="K4" t="n">
-        <v>93088.76706036451</v>
+        <v>93088.76706036454</v>
       </c>
       <c r="L4" t="n">
-        <v>95124.21672118653</v>
+        <v>95124.21672118656</v>
       </c>
       <c r="M4" t="n">
         <v>95124.21672118656</v>
       </c>
       <c r="N4" t="n">
-        <v>95124.21672118656</v>
+        <v>95124.21672118649</v>
       </c>
       <c r="O4" t="n">
+        <v>93088.76706036447</v>
+      </c>
+      <c r="P4" t="n">
         <v>93088.76706036454</v>
-      </c>
-      <c r="P4" t="n">
-        <v>93088.76706036452</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>72787.96136398586</v>
+        <v>72787.96136398583</v>
       </c>
       <c r="F5" t="n">
-        <v>72787.96136398587</v>
+        <v>72787.96136398581</v>
       </c>
       <c r="G5" t="n">
         <v>73040.92341322344</v>
@@ -26493,7 +26493,7 @@
         <v>73040.92341322344</v>
       </c>
       <c r="J5" t="n">
-        <v>72787.96136398586</v>
+        <v>72787.96136398587</v>
       </c>
       <c r="K5" t="n">
         <v>72787.96136398587</v>
@@ -26505,7 +26505,7 @@
         <v>73040.92341322344</v>
       </c>
       <c r="N5" t="n">
-        <v>73040.92341322344</v>
+        <v>73040.92341322347</v>
       </c>
       <c r="O5" t="n">
         <v>72787.96136398587</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>392339.9651902037</v>
+        <v>392339.9651902036</v>
       </c>
       <c r="C6" t="n">
         <v>473109.3967217515</v>
       </c>
       <c r="D6" t="n">
-        <v>473109.3967217507</v>
+        <v>473109.3967217513</v>
       </c>
       <c r="E6" t="n">
-        <v>-72453.20043103573</v>
+        <v>-72543.01852295794</v>
       </c>
       <c r="F6" t="n">
-        <v>631136.0916083895</v>
+        <v>631046.2735164688</v>
       </c>
       <c r="G6" t="n">
-        <v>629943.4004401463</v>
+        <v>629943.4004401461</v>
       </c>
       <c r="H6" t="n">
-        <v>632350.5854832665</v>
+        <v>632350.5854832659</v>
       </c>
       <c r="I6" t="n">
-        <v>632350.5854832653</v>
+        <v>632350.5854832659</v>
       </c>
       <c r="J6" t="n">
-        <v>497671.191556008</v>
+        <v>497581.3734640866</v>
       </c>
       <c r="K6" t="n">
-        <v>631136.0916083899</v>
+        <v>631046.2735164681</v>
       </c>
       <c r="L6" t="n">
-        <v>627536.2153970259</v>
+        <v>627536.2153970257</v>
       </c>
       <c r="M6" t="n">
         <v>474562.3739288226</v>
       </c>
       <c r="N6" t="n">
-        <v>632350.5854832662</v>
+        <v>632350.5854832659</v>
       </c>
       <c r="O6" t="n">
-        <v>563138.3191982342</v>
+        <v>563048.5011063128</v>
       </c>
       <c r="P6" t="n">
-        <v>631136.0916083895</v>
+        <v>631046.2735164684</v>
       </c>
     </row>
   </sheetData>
@@ -26694,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="F2" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="G2" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="H2" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="I2" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="J2" t="n">
         <v>91.01517812049461</v>
       </c>
       <c r="K2" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="L2" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="M2" t="n">
         <v>94.0241594243948</v>
       </c>
       <c r="N2" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="O2" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="P2" t="n">
         <v>91.01517812049465</v>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>549.819777744931</v>
+        <v>549.8197777449312</v>
       </c>
       <c r="F3" t="n">
-        <v>549.8197777449313</v>
+        <v>549.8197777449309</v>
       </c>
       <c r="G3" t="n">
-        <v>549.8197777449313</v>
+        <v>549.8197777449311</v>
       </c>
       <c r="H3" t="n">
-        <v>549.8197777449313</v>
+        <v>549.8197777449311</v>
       </c>
       <c r="I3" t="n">
         <v>549.8197777449313</v>
@@ -26773,10 +26773,10 @@
         <v>549.8197777449313</v>
       </c>
       <c r="N3" t="n">
-        <v>549.8197777449313</v>
+        <v>549.8197777449315</v>
       </c>
       <c r="O3" t="n">
-        <v>549.8197777449313</v>
+        <v>549.8197777449315</v>
       </c>
       <c r="P3" t="n">
         <v>549.8197777449313</v>
@@ -26798,22 +26798,22 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>874.1831447324747</v>
+      </c>
+      <c r="F4" t="n">
+        <v>874.1831447324748</v>
+      </c>
+      <c r="G4" t="n">
         <v>874.1831447324753</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>874.1831447324751</v>
+      </c>
+      <c r="I4" t="n">
         <v>874.1831447324753</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>874.1831447324754</v>
-      </c>
-      <c r="H4" t="n">
-        <v>874.1831447324754</v>
-      </c>
-      <c r="I4" t="n">
-        <v>874.1831447324754</v>
-      </c>
-      <c r="J4" t="n">
-        <v>874.1831447324753</v>
       </c>
       <c r="K4" t="n">
         <v>874.1831447324754</v>
@@ -26822,13 +26822,13 @@
         <v>874.1831447324753</v>
       </c>
       <c r="M4" t="n">
-        <v>874.1831447324754</v>
+        <v>874.1831447324752</v>
       </c>
       <c r="N4" t="n">
-        <v>874.1831447324752</v>
+        <v>874.1831447324757</v>
       </c>
       <c r="O4" t="n">
-        <v>874.1831447324754</v>
+        <v>874.1831447324753</v>
       </c>
       <c r="P4" t="n">
         <v>874.1831447324754</v>
@@ -26916,37 +26916,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.008981303900086</v>
+        <v>3.008981303900256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>88.00619681659452</v>
+        <v>88.00619681659447</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.017962607800243</v>
+        <v>6.017962607800399</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>84.99721551269438</v>
+        <v>84.99721551269437</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>549.819777744931</v>
+        <v>549.8197777449312</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>633.168855854816</v>
+        <v>633.1688558548158</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>633.168855854816</v>
+        <v>633.1688558548157</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,22 +27153,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.008981303900086</v>
+        <v>3.008981303900256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>88.00619681659452</v>
+        <v>88.00619681659447</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>633.168855854816</v>
+        <v>633.1688558548158</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>206.5399494528818</v>
+        <v>371.7118049091667</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27426,7 +27426,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27435,19 +27435,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.3801024429386</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>101.6280177268429</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>206.5399494528818</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>183.3765475617809</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27660,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27669,10 +27669,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27700,7 +27700,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>23.04596488325127</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27712,7 +27712,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>116.8541000790599</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>38.23792762219048</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.32518834398849</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27858,19 +27858,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>331.7898455187701</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>171.3081882983289</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27934,28 +27934,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>84.00176890568575</v>
+        <v>108.6299806268262</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>49.36645333167576</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28052,13 +28052,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="C11" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="D11" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="E11" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="F11" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="G11" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="H11" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="I11" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28137,28 +28137,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>11.02442803654657</v>
+        <v>11.02442803654651</v>
       </c>
       <c r="S11" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="T11" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="U11" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="V11" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="W11" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="X11" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="C13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="D13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="E13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="F13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="G13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="H13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="I13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="J13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="K13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="L13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="M13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="N13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="O13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="P13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="R13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="S13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="T13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="U13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="V13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="W13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="X13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049468</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="C14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="D14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="E14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="F14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="G14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="H14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="I14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28374,28 +28374,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>11.02442803654648</v>
+        <v>11.0244280365466</v>
       </c>
       <c r="S14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="T14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="U14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="V14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="W14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="X14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="C16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="D16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="E16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="F16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="G16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="H16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="I16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="J16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="K16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="L16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049497</v>
       </c>
       <c r="M16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="N16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="O16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="P16" t="n">
-        <v>91.01517812049369</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="R16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="S16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="T16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="U16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="V16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="W16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="X16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="C17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="D17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="E17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="F17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="G17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="H17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="I17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28611,28 +28611,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>11.02442803654648</v>
+        <v>11.02442803654654</v>
       </c>
       <c r="S17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="T17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="U17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="V17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="W17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="X17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="C19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="D19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="E19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="F19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="G19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="H19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="I19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="J19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="K19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="L19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="M19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="N19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="O19" t="n">
-        <v>20.83109599206958</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="P19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.02415942439475</v>
+        <v>20.83109599206627</v>
       </c>
       <c r="R19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="S19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="T19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="U19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="V19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="W19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="X19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="C20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="D20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="E20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="F20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="G20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="H20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="I20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28848,28 +28848,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>11.02442803654648</v>
+        <v>11.02442803654654</v>
       </c>
       <c r="S20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="T20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="U20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="V20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="W20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="X20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="C22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="D22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="E22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="F22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="G22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="H22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="I22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="J22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="K22" t="n">
-        <v>20.83109599206959</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="L22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="M22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="N22" t="n">
-        <v>94.02415942439475</v>
+        <v>20.83109599206637</v>
       </c>
       <c r="O22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="P22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="R22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="S22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="T22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="U22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="V22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="W22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="X22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.02415942439475</v>
+        <v>94.0241594243949</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="C23" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="D23" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="E23" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="F23" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="G23" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="H23" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="I23" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>11.02442803654648</v>
       </c>
       <c r="S23" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="T23" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="U23" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="V23" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="W23" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="X23" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="C25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="D25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="E25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="F25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="G25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="H25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="I25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="J25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="K25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="L25" t="n">
-        <v>20.83109599206966</v>
+        <v>20.83109599206807</v>
       </c>
       <c r="M25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="N25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="O25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="P25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="R25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="S25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="T25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="U25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="V25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="W25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="X25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
     </row>
     <row r="26">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C29" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D29" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E29" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F29" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G29" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H29" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I29" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>11.02442803654648</v>
       </c>
       <c r="S29" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T29" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U29" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V29" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W29" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X29" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y29" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="K31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="L31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="M31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="N31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="O31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="P31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Q31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="R31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="S31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="C32" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="D32" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="E32" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="F32" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="G32" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="H32" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="I32" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>11.02442803654648</v>
       </c>
       <c r="S32" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="T32" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="U32" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="V32" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="W32" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="X32" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="Y32" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="C34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="D34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="E34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="F34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="G34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="H34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="I34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="J34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="K34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="L34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="M34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="N34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="O34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="P34" t="n">
-        <v>20.83109599206881</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.02415942439477</v>
+        <v>20.83109599206852</v>
       </c>
       <c r="R34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="S34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="T34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="U34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="V34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="W34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="X34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="Y34" t="n">
-        <v>94.02415942439477</v>
+        <v>94.0241594243948</v>
       </c>
     </row>
     <row r="35">
@@ -30173,7 +30173,7 @@
         <v>94.0241594243948</v>
       </c>
       <c r="L37" t="n">
-        <v>20.8310959920683</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="M37" t="n">
         <v>94.0241594243948</v>
@@ -30182,7 +30182,7 @@
         <v>94.0241594243948</v>
       </c>
       <c r="O37" t="n">
-        <v>94.0241594243948</v>
+        <v>20.83109599206844</v>
       </c>
       <c r="P37" t="n">
         <v>94.0241594243948</v>
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="C38" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="D38" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="E38" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="F38" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="G38" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="H38" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="I38" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30270,28 +30270,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>11.02442803654648</v>
+        <v>11.02442803654555</v>
       </c>
       <c r="S38" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="T38" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="U38" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="V38" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="W38" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="X38" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="Y38" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="C40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="D40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="E40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="F40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="G40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="H40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="I40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="J40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="K40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="L40" t="n">
-        <v>94.0241594243948</v>
+        <v>20.83109599206998</v>
       </c>
       <c r="M40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="N40" t="n">
-        <v>20.83109599206838</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="O40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="P40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="Q40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="R40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="S40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="T40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="U40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="V40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="W40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="X40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
       <c r="Y40" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439474</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="C41" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="D41" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="E41" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="F41" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="G41" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="H41" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="I41" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>11.02442803654648</v>
+        <v>11.02442803654553</v>
       </c>
       <c r="S41" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="T41" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="U41" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="V41" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="W41" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="X41" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="Y41" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="C43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="D43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="E43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="F43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="G43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="H43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="I43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="J43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="K43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="L43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="M43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="N43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="O43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="P43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="Q43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="R43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="S43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="T43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="U43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="V43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="W43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="X43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="Y43" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049464</v>
       </c>
     </row>
     <row r="44">
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.210330764803741</v>
+        <v>2.210330764803742</v>
       </c>
       <c r="H11" t="n">
-        <v>22.63654994504632</v>
+        <v>22.63654994504633</v>
       </c>
       <c r="I11" t="n">
-        <v>85.21377681009631</v>
+        <v>85.21377681009635</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5990607492617</v>
+        <v>187.5990607492618</v>
       </c>
       <c r="K11" t="n">
-        <v>281.1623620234041</v>
+        <v>281.1623620234042</v>
       </c>
       <c r="L11" t="n">
-        <v>348.8067721667667</v>
+        <v>348.8067721667668</v>
       </c>
       <c r="M11" t="n">
-        <v>388.1147419053452</v>
+        <v>388.1147419053453</v>
       </c>
       <c r="N11" t="n">
-        <v>394.3948441908439</v>
+        <v>394.394844190844</v>
       </c>
       <c r="O11" t="n">
-        <v>372.4158676483266</v>
+        <v>372.4158676483268</v>
       </c>
       <c r="P11" t="n">
-        <v>317.8483268922342</v>
+        <v>317.8483268922344</v>
       </c>
       <c r="Q11" t="n">
         <v>238.6908563777002</v>
       </c>
       <c r="R11" t="n">
-        <v>138.8446899046031</v>
+        <v>138.8446899046032</v>
       </c>
       <c r="S11" t="n">
-        <v>50.3679123029653</v>
+        <v>50.36791230296532</v>
       </c>
       <c r="T11" t="n">
-        <v>9.675722922928381</v>
+        <v>9.675722922928385</v>
       </c>
       <c r="U11" t="n">
         <v>0.1768264611842993</v>
@@ -31834,25 +31834,25 @@
         <v>1.182631220055135</v>
       </c>
       <c r="H12" t="n">
-        <v>11.42172783579564</v>
+        <v>11.42172783579565</v>
       </c>
       <c r="I12" t="n">
-        <v>40.71778542733688</v>
+        <v>40.71778542733689</v>
       </c>
       <c r="J12" t="n">
         <v>111.7327154000336</v>
       </c>
       <c r="K12" t="n">
-        <v>190.9690071437276</v>
+        <v>190.9690071437277</v>
       </c>
       <c r="L12" t="n">
-        <v>256.7813971439888</v>
+        <v>256.7813971439889</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>149.0093324468598</v>
+        <v>149.0093324468596</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31861,19 +31861,19 @@
         <v>225.8306932401775</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.9618378442309</v>
+        <v>150.961837844231</v>
       </c>
       <c r="R12" t="n">
-        <v>73.42687522412497</v>
+        <v>73.426875224125</v>
       </c>
       <c r="S12" t="n">
-        <v>21.96685621462058</v>
+        <v>21.96685621462059</v>
       </c>
       <c r="T12" t="n">
-        <v>4.766833733467844</v>
+        <v>4.766833733467846</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0778046855299431</v>
+        <v>0.07780468552994313</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9914782877367607</v>
+        <v>0.9914782877367612</v>
       </c>
       <c r="H13" t="n">
-        <v>8.815143321877752</v>
+        <v>8.815143321877756</v>
       </c>
       <c r="I13" t="n">
-        <v>29.81645614393823</v>
+        <v>29.81645614393824</v>
       </c>
       <c r="J13" t="n">
-        <v>70.09751494298898</v>
+        <v>70.09751494298901</v>
       </c>
       <c r="K13" t="n">
-        <v>115.1917501570527</v>
+        <v>115.1917501570528</v>
       </c>
       <c r="L13" t="n">
         <v>147.4057810695181</v>
       </c>
       <c r="M13" t="n">
-        <v>155.4187283222269</v>
+        <v>155.418728322227</v>
       </c>
       <c r="N13" t="n">
         <v>151.7232183406628</v>
@@ -31940,19 +31940,19 @@
         <v>119.9147921822715</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.02278643948458</v>
+        <v>83.02278643948462</v>
       </c>
       <c r="R13" t="n">
-        <v>44.58046919223652</v>
+        <v>44.58046919223654</v>
       </c>
       <c r="S13" t="n">
-        <v>17.2787625235579</v>
+        <v>17.27876252355791</v>
       </c>
       <c r="T13" t="n">
-        <v>4.236316320329795</v>
+        <v>4.236316320329797</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05408063387655065</v>
+        <v>0.05408063387655067</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.210330764803742</v>
+        <v>2.210330764803741</v>
       </c>
       <c r="H14" t="n">
-        <v>22.63654994504633</v>
+        <v>22.63654994504632</v>
       </c>
       <c r="I14" t="n">
-        <v>85.21377681009636</v>
+        <v>85.21377681009629</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5990607492618</v>
+        <v>187.5990607492616</v>
       </c>
       <c r="K14" t="n">
-        <v>281.1623620234043</v>
+        <v>281.1623620234041</v>
       </c>
       <c r="L14" t="n">
-        <v>348.8067721667669</v>
+        <v>348.8067721667666</v>
       </c>
       <c r="M14" t="n">
-        <v>388.1147419053454</v>
+        <v>388.1147419053451</v>
       </c>
       <c r="N14" t="n">
-        <v>394.3948441908441</v>
+        <v>394.3948441908437</v>
       </c>
       <c r="O14" t="n">
-        <v>372.4158676483269</v>
+        <v>372.4158676483265</v>
       </c>
       <c r="P14" t="n">
-        <v>317.8483268922344</v>
+        <v>317.8483268922341</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.6908563777003</v>
+        <v>238.6908563777001</v>
       </c>
       <c r="R14" t="n">
-        <v>138.8446899046032</v>
+        <v>138.8446899046031</v>
       </c>
       <c r="S14" t="n">
-        <v>50.36791230296533</v>
+        <v>50.36791230296529</v>
       </c>
       <c r="T14" t="n">
-        <v>9.675722922928387</v>
+        <v>9.675722922928379</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1768264611842994</v>
+        <v>0.1768264611842992</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.182631220055135</v>
+        <v>1.182631220055134</v>
       </c>
       <c r="H15" t="n">
-        <v>11.42172783579565</v>
+        <v>11.42172783579564</v>
       </c>
       <c r="I15" t="n">
-        <v>40.71778542733691</v>
+        <v>40.71778542733687</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>111.7327154000336</v>
       </c>
       <c r="K15" t="n">
-        <v>190.9690071437277</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>256.781397143989</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>7.799015189049328</v>
       </c>
       <c r="N15" t="n">
-        <v>259.9954565206351</v>
+        <v>307.5826698160062</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>281.3780517295214</v>
       </c>
       <c r="P15" t="n">
-        <v>225.8306932401776</v>
+        <v>225.8306932401774</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.961837844231</v>
+        <v>150.9618378442308</v>
       </c>
       <c r="R15" t="n">
-        <v>73.42687522412501</v>
+        <v>73.42687522412496</v>
       </c>
       <c r="S15" t="n">
-        <v>21.96685621462059</v>
+        <v>21.96685621462057</v>
       </c>
       <c r="T15" t="n">
-        <v>4.766833733467847</v>
+        <v>4.766833733467842</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07780468552994314</v>
+        <v>0.07780468552994309</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9914782877367613</v>
+        <v>0.9914782877367605</v>
       </c>
       <c r="H16" t="n">
-        <v>8.815143321877757</v>
+        <v>8.81514332187775</v>
       </c>
       <c r="I16" t="n">
-        <v>29.81645614393825</v>
+        <v>29.81645614393823</v>
       </c>
       <c r="J16" t="n">
-        <v>70.09751494298902</v>
+        <v>70.09751494298897</v>
       </c>
       <c r="K16" t="n">
-        <v>115.1917501570528</v>
+        <v>115.1917501570527</v>
       </c>
       <c r="L16" t="n">
-        <v>147.4057810695182</v>
+        <v>147.405781069518</v>
       </c>
       <c r="M16" t="n">
-        <v>155.418728322227</v>
+        <v>155.4187283222269</v>
       </c>
       <c r="N16" t="n">
-        <v>151.7232183406629</v>
+        <v>151.7232183406627</v>
       </c>
       <c r="O16" t="n">
-        <v>140.1409492521016</v>
+        <v>140.1409492521014</v>
       </c>
       <c r="P16" t="n">
-        <v>119.9147921822715</v>
+        <v>119.9147921822714</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.02278643948463</v>
+        <v>83.02278643948456</v>
       </c>
       <c r="R16" t="n">
-        <v>44.58046919223655</v>
+        <v>44.58046919223651</v>
       </c>
       <c r="S16" t="n">
-        <v>17.27876252355792</v>
+        <v>17.2787625235579</v>
       </c>
       <c r="T16" t="n">
-        <v>4.236316320329797</v>
+        <v>4.236316320329794</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05408063387655068</v>
+        <v>0.05408063387655063</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>2.210330764803742</v>
       </c>
       <c r="H17" t="n">
-        <v>22.63654994504633</v>
+        <v>22.63654994504632</v>
       </c>
       <c r="I17" t="n">
-        <v>85.21377681009636</v>
+        <v>85.21377681009632</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5990607492618</v>
+        <v>187.5990607492617</v>
       </c>
       <c r="K17" t="n">
-        <v>281.1623620234043</v>
+        <v>281.1623620234042</v>
       </c>
       <c r="L17" t="n">
-        <v>348.8067721667669</v>
+        <v>348.8067721667667</v>
       </c>
       <c r="M17" t="n">
-        <v>388.1147419053454</v>
+        <v>388.1147419053453</v>
       </c>
       <c r="N17" t="n">
-        <v>394.3948441908441</v>
+        <v>394.3948441908439</v>
       </c>
       <c r="O17" t="n">
-        <v>372.4158676483269</v>
+        <v>372.4158676483267</v>
       </c>
       <c r="P17" t="n">
-        <v>317.8483268922344</v>
+        <v>317.8483268922343</v>
       </c>
       <c r="Q17" t="n">
-        <v>238.6908563777003</v>
+        <v>238.6908563777002</v>
       </c>
       <c r="R17" t="n">
-        <v>138.8446899046032</v>
+        <v>138.8446899046031</v>
       </c>
       <c r="S17" t="n">
-        <v>50.36791230296533</v>
+        <v>50.36791230296531</v>
       </c>
       <c r="T17" t="n">
-        <v>9.675722922928387</v>
+        <v>9.675722922928383</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1768264611842994</v>
+        <v>0.1768264611842993</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,43 +32311,43 @@
         <v>11.42172783579565</v>
       </c>
       <c r="I18" t="n">
-        <v>40.71778542733691</v>
+        <v>40.71778542733689</v>
       </c>
       <c r="J18" t="n">
-        <v>111.7327154000337</v>
+        <v>111.7327154000336</v>
       </c>
       <c r="K18" t="n">
-        <v>190.9690071437277</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>256.7813971439888</v>
       </c>
       <c r="M18" t="n">
-        <v>98.2080597748419</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>307.5826698160064</v>
+        <v>209.562125705297</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>281.3780517295215</v>
       </c>
       <c r="P18" t="n">
-        <v>225.8306932401776</v>
+        <v>225.8306932401775</v>
       </c>
       <c r="Q18" t="n">
-        <v>150.961837844231</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>73.42687522412501</v>
+        <v>73.42687522412498</v>
       </c>
       <c r="S18" t="n">
-        <v>21.96685621462059</v>
+        <v>21.96685621462058</v>
       </c>
       <c r="T18" t="n">
-        <v>4.766833733467847</v>
+        <v>4.766833733467845</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07780468552994314</v>
+        <v>0.07780468552994312</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9914782877367613</v>
+        <v>0.9914782877367609</v>
       </c>
       <c r="H19" t="n">
-        <v>8.815143321877757</v>
+        <v>8.815143321877754</v>
       </c>
       <c r="I19" t="n">
-        <v>29.81645614393825</v>
+        <v>29.81645614393824</v>
       </c>
       <c r="J19" t="n">
-        <v>70.09751494298902</v>
+        <v>70.09751494298899</v>
       </c>
       <c r="K19" t="n">
-        <v>115.1917501570528</v>
+        <v>115.1917501570527</v>
       </c>
       <c r="L19" t="n">
-        <v>147.4057810695182</v>
+        <v>147.4057810695181</v>
       </c>
       <c r="M19" t="n">
         <v>155.418728322227</v>
       </c>
       <c r="N19" t="n">
-        <v>151.7232183406629</v>
+        <v>151.7232183406628</v>
       </c>
       <c r="O19" t="n">
-        <v>140.1409492521016</v>
+        <v>140.1409492521015</v>
       </c>
       <c r="P19" t="n">
         <v>119.9147921822715</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.02278643948463</v>
+        <v>83.02278643948459</v>
       </c>
       <c r="R19" t="n">
-        <v>44.58046919223655</v>
+        <v>44.58046919223653</v>
       </c>
       <c r="S19" t="n">
-        <v>17.27876252355792</v>
+        <v>17.27876252355791</v>
       </c>
       <c r="T19" t="n">
-        <v>4.236316320329797</v>
+        <v>4.236316320329796</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05408063387655068</v>
+        <v>0.05408063387655066</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,46 +32466,46 @@
         <v>2.210330764803742</v>
       </c>
       <c r="H20" t="n">
-        <v>22.63654994504633</v>
+        <v>22.63654994504632</v>
       </c>
       <c r="I20" t="n">
-        <v>85.21377681009636</v>
+        <v>85.21377681009632</v>
       </c>
       <c r="J20" t="n">
-        <v>187.5990607492618</v>
+        <v>187.5990607492617</v>
       </c>
       <c r="K20" t="n">
-        <v>281.1623620234043</v>
+        <v>281.1623620234042</v>
       </c>
       <c r="L20" t="n">
-        <v>348.8067721667669</v>
+        <v>348.8067721667667</v>
       </c>
       <c r="M20" t="n">
-        <v>388.1147419053454</v>
+        <v>388.1147419053453</v>
       </c>
       <c r="N20" t="n">
-        <v>394.3948441908441</v>
+        <v>394.3948441908439</v>
       </c>
       <c r="O20" t="n">
-        <v>372.4158676483269</v>
+        <v>372.4158676483267</v>
       </c>
       <c r="P20" t="n">
-        <v>317.8483268922344</v>
+        <v>317.8483268922343</v>
       </c>
       <c r="Q20" t="n">
-        <v>238.6908563777003</v>
+        <v>238.6908563777002</v>
       </c>
       <c r="R20" t="n">
-        <v>138.8446899046032</v>
+        <v>138.8446899046031</v>
       </c>
       <c r="S20" t="n">
-        <v>50.36791230296533</v>
+        <v>50.36791230296531</v>
       </c>
       <c r="T20" t="n">
-        <v>9.675722922928387</v>
+        <v>9.675722922928383</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1768264611842994</v>
+        <v>0.1768264611842993</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,43 +32548,43 @@
         <v>11.42172783579565</v>
       </c>
       <c r="I21" t="n">
-        <v>40.71778542733691</v>
+        <v>40.71778542733689</v>
       </c>
       <c r="J21" t="n">
-        <v>111.7327154000337</v>
+        <v>111.7327154000336</v>
       </c>
       <c r="K21" t="n">
-        <v>190.9690071437277</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>256.781397143989</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>7.799015189048532</v>
       </c>
       <c r="N21" t="n">
-        <v>93.46197395751528</v>
+        <v>307.5826698160063</v>
       </c>
       <c r="O21" t="n">
-        <v>281.3780517295216</v>
+        <v>281.3780517295215</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>225.8306932401775</v>
       </c>
       <c r="Q21" t="n">
-        <v>150.961837844231</v>
+        <v>150.9618378442309</v>
       </c>
       <c r="R21" t="n">
-        <v>73.42687522412501</v>
+        <v>73.42687522412498</v>
       </c>
       <c r="S21" t="n">
-        <v>21.96685621462059</v>
+        <v>21.96685621462058</v>
       </c>
       <c r="T21" t="n">
-        <v>4.766833733467847</v>
+        <v>4.766833733467845</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07780468552994314</v>
+        <v>0.07780468552994312</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9914782877367613</v>
+        <v>0.9914782877367609</v>
       </c>
       <c r="H22" t="n">
-        <v>8.815143321877757</v>
+        <v>8.815143321877754</v>
       </c>
       <c r="I22" t="n">
-        <v>29.81645614393825</v>
+        <v>29.81645614393824</v>
       </c>
       <c r="J22" t="n">
-        <v>70.09751494298902</v>
+        <v>70.09751494298899</v>
       </c>
       <c r="K22" t="n">
-        <v>115.1917501570528</v>
+        <v>115.1917501570527</v>
       </c>
       <c r="L22" t="n">
-        <v>147.4057810695182</v>
+        <v>147.4057810695181</v>
       </c>
       <c r="M22" t="n">
         <v>155.418728322227</v>
       </c>
       <c r="N22" t="n">
-        <v>151.7232183406629</v>
+        <v>151.7232183406628</v>
       </c>
       <c r="O22" t="n">
-        <v>140.1409492521016</v>
+        <v>140.1409492521015</v>
       </c>
       <c r="P22" t="n">
         <v>119.9147921822715</v>
       </c>
       <c r="Q22" t="n">
-        <v>83.02278643948463</v>
+        <v>83.02278643948459</v>
       </c>
       <c r="R22" t="n">
-        <v>44.58046919223655</v>
+        <v>44.58046919223653</v>
       </c>
       <c r="S22" t="n">
-        <v>17.27876252355792</v>
+        <v>17.27876252355791</v>
       </c>
       <c r="T22" t="n">
-        <v>4.236316320329797</v>
+        <v>4.236316320329796</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05408063387655068</v>
+        <v>0.05408063387655066</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,16 +32788,16 @@
         <v>40.71778542733691</v>
       </c>
       <c r="J24" t="n">
-        <v>111.7327154000337</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>51.41932591542152</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>158.7608530332794</v>
+        <v>299.6517788709875</v>
       </c>
       <c r="N24" t="n">
         <v>307.5826698160064</v>
@@ -32809,7 +32809,7 @@
         <v>225.8306932401776</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>150.961837844231</v>
       </c>
       <c r="R24" t="n">
         <v>73.42687522412501</v>
@@ -33025,16 +33025,16 @@
         <v>40.71778542733691</v>
       </c>
       <c r="J27" t="n">
-        <v>111.7327154000337</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>190.9690071437277</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>256.781397143989</v>
       </c>
       <c r="M27" t="n">
-        <v>7.799015189048191</v>
+        <v>299.6517788709875</v>
       </c>
       <c r="N27" t="n">
         <v>307.5826698160064</v>
@@ -33043,10 +33043,10 @@
         <v>281.3780517295216</v>
       </c>
       <c r="P27" t="n">
-        <v>225.8306932401776</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>150.961837844231</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>73.42687522412501</v>
@@ -33262,28 +33262,28 @@
         <v>40.71778542733691</v>
       </c>
       <c r="J30" t="n">
-        <v>111.7327154000337</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>256.781397143989</v>
       </c>
       <c r="M30" t="n">
         <v>299.6517788709875</v>
       </c>
       <c r="N30" t="n">
-        <v>307.5826698160064</v>
+        <v>277.9364828315951</v>
       </c>
       <c r="O30" t="n">
-        <v>281.3780517295216</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>84.93976740246922</v>
+        <v>225.8306932401776</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>150.961837844231</v>
       </c>
       <c r="R30" t="n">
         <v>73.42687522412501</v>
@@ -33505,22 +33505,22 @@
         <v>190.9690071437277</v>
       </c>
       <c r="L33" t="n">
-        <v>124.4126778613269</v>
+        <v>256.781397143989</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>299.6517788709875</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>307.5826698160064</v>
       </c>
       <c r="O33" t="n">
-        <v>281.3780517295216</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>225.8306932401776</v>
       </c>
       <c r="Q33" t="n">
-        <v>150.961837844231</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>73.42687522412501</v>
@@ -33739,19 +33739,19 @@
         <v>111.7327154000337</v>
       </c>
       <c r="K36" t="n">
-        <v>190.9690071437277</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>256.781397143989</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>299.6517788709875</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>307.5826698160064</v>
       </c>
       <c r="O36" t="n">
-        <v>149.0093324468593</v>
+        <v>281.3780517295216</v>
       </c>
       <c r="P36" t="n">
         <v>225.8306932401776</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.210330764803742</v>
+        <v>2.210330764803743</v>
       </c>
       <c r="H38" t="n">
-        <v>22.63654994504633</v>
+        <v>22.63654994504634</v>
       </c>
       <c r="I38" t="n">
-        <v>85.21377681009636</v>
+        <v>85.21377681009638</v>
       </c>
       <c r="J38" t="n">
         <v>187.5990607492618</v>
@@ -33900,31 +33900,31 @@
         <v>281.1623620234043</v>
       </c>
       <c r="L38" t="n">
-        <v>348.8067721667669</v>
+        <v>348.806772166767</v>
       </c>
       <c r="M38" t="n">
-        <v>388.1147419053454</v>
+        <v>388.1147419053455</v>
       </c>
       <c r="N38" t="n">
-        <v>394.3948441908441</v>
+        <v>394.3948441908442</v>
       </c>
       <c r="O38" t="n">
         <v>372.4158676483269</v>
       </c>
       <c r="P38" t="n">
-        <v>317.8483268922344</v>
+        <v>317.8483268922345</v>
       </c>
       <c r="Q38" t="n">
-        <v>238.6908563777003</v>
+        <v>238.6908563777015</v>
       </c>
       <c r="R38" t="n">
         <v>138.8446899046032</v>
       </c>
       <c r="S38" t="n">
-        <v>50.36791230296533</v>
+        <v>50.36791230296534</v>
       </c>
       <c r="T38" t="n">
-        <v>9.675722922928387</v>
+        <v>9.67572292292839</v>
       </c>
       <c r="U38" t="n">
         <v>0.1768264611842994</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.182631220055135</v>
+        <v>1.182631220055136</v>
       </c>
       <c r="H39" t="n">
         <v>11.42172783579565</v>
@@ -33976,16 +33976,16 @@
         <v>111.7327154000337</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>190.9690071437278</v>
       </c>
       <c r="L39" t="n">
-        <v>228.8563666831069</v>
+        <v>256.781397143989</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>215.6319429775575</v>
       </c>
       <c r="N39" t="n">
-        <v>307.5826698160064</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>281.3780517295216</v>
@@ -33994,19 +33994,19 @@
         <v>225.8306932401776</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>150.961837844231</v>
       </c>
       <c r="R39" t="n">
-        <v>73.42687522412501</v>
+        <v>73.42687522412503</v>
       </c>
       <c r="S39" t="n">
-        <v>21.96685621462059</v>
+        <v>21.9668562146206</v>
       </c>
       <c r="T39" t="n">
         <v>4.766833733467847</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07780468552994314</v>
+        <v>0.07780468552994316</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9914782877367613</v>
+        <v>0.9914782877367615</v>
       </c>
       <c r="H40" t="n">
-        <v>8.815143321877757</v>
+        <v>8.815143321877759</v>
       </c>
       <c r="I40" t="n">
-        <v>29.81645614393825</v>
+        <v>29.81645614393826</v>
       </c>
       <c r="J40" t="n">
-        <v>70.09751494298902</v>
+        <v>70.09751494298904</v>
       </c>
       <c r="K40" t="n">
         <v>115.1917501570528</v>
@@ -34061,7 +34061,7 @@
         <v>147.4057810695182</v>
       </c>
       <c r="M40" t="n">
-        <v>155.418728322227</v>
+        <v>155.4187283222271</v>
       </c>
       <c r="N40" t="n">
         <v>151.7232183406629</v>
@@ -34073,19 +34073,19 @@
         <v>119.9147921822715</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.02278643948463</v>
+        <v>83.02278643948465</v>
       </c>
       <c r="R40" t="n">
-        <v>44.58046919223655</v>
+        <v>44.58046919223656</v>
       </c>
       <c r="S40" t="n">
         <v>17.27876252355792</v>
       </c>
       <c r="T40" t="n">
-        <v>4.236316320329797</v>
+        <v>4.236316320329798</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05408063387655068</v>
+        <v>0.05408063387655069</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.210330764803742</v>
+        <v>2.210330764803743</v>
       </c>
       <c r="H41" t="n">
-        <v>22.63654994504633</v>
+        <v>22.63654994504634</v>
       </c>
       <c r="I41" t="n">
-        <v>85.21377681009636</v>
+        <v>85.21377681009638</v>
       </c>
       <c r="J41" t="n">
         <v>187.5990607492618</v>
@@ -34137,31 +34137,31 @@
         <v>281.1623620234043</v>
       </c>
       <c r="L41" t="n">
-        <v>348.8067721667669</v>
+        <v>348.806772166767</v>
       </c>
       <c r="M41" t="n">
-        <v>388.1147419053454</v>
+        <v>388.1147419053455</v>
       </c>
       <c r="N41" t="n">
-        <v>394.3948441908441</v>
+        <v>394.3948441908442</v>
       </c>
       <c r="O41" t="n">
         <v>372.4158676483269</v>
       </c>
       <c r="P41" t="n">
-        <v>317.8483268922344</v>
+        <v>317.8483268922345</v>
       </c>
       <c r="Q41" t="n">
-        <v>238.6908563777003</v>
+        <v>238.6908563777004</v>
       </c>
       <c r="R41" t="n">
         <v>138.8446899046032</v>
       </c>
       <c r="S41" t="n">
-        <v>50.36791230296533</v>
+        <v>50.36791230296534</v>
       </c>
       <c r="T41" t="n">
-        <v>9.675722922928387</v>
+        <v>9.67572292292839</v>
       </c>
       <c r="U41" t="n">
         <v>0.1768264611842994</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.182631220055135</v>
+        <v>1.182631220055136</v>
       </c>
       <c r="H42" t="n">
         <v>11.42172783579565</v>
@@ -34213,19 +34213,19 @@
         <v>111.7327154000337</v>
       </c>
       <c r="K42" t="n">
-        <v>190.9690071437277</v>
+        <v>190.9690071437278</v>
       </c>
       <c r="L42" t="n">
-        <v>175.3488119882632</v>
+        <v>256.781397143989</v>
       </c>
       <c r="M42" t="n">
-        <v>299.6517788709875</v>
+        <v>299.6517788709876</v>
       </c>
       <c r="N42" t="n">
-        <v>307.5826698160064</v>
+        <v>307.5826698160066</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>173.1512897197082</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -34234,16 +34234,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>73.42687522412501</v>
+        <v>73.42687522412503</v>
       </c>
       <c r="S42" t="n">
-        <v>21.96685621462059</v>
+        <v>21.9668562146206</v>
       </c>
       <c r="T42" t="n">
         <v>4.766833733467847</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07780468552994314</v>
+        <v>0.07780468552994316</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9914782877367613</v>
+        <v>0.9914782877367615</v>
       </c>
       <c r="H43" t="n">
-        <v>8.815143321877757</v>
+        <v>8.815143321877759</v>
       </c>
       <c r="I43" t="n">
-        <v>29.81645614393825</v>
+        <v>29.81645614393826</v>
       </c>
       <c r="J43" t="n">
-        <v>70.09751494298902</v>
+        <v>70.09751494298904</v>
       </c>
       <c r="K43" t="n">
         <v>115.1917501570528</v>
@@ -34298,7 +34298,7 @@
         <v>147.4057810695182</v>
       </c>
       <c r="M43" t="n">
-        <v>155.418728322227</v>
+        <v>155.4187283222271</v>
       </c>
       <c r="N43" t="n">
         <v>151.7232183406629</v>
@@ -34310,19 +34310,19 @@
         <v>119.9147921822715</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.02278643948463</v>
+        <v>83.02278643948465</v>
       </c>
       <c r="R43" t="n">
-        <v>44.58046919223655</v>
+        <v>44.58046919223656</v>
       </c>
       <c r="S43" t="n">
         <v>17.27876252355792</v>
       </c>
       <c r="T43" t="n">
-        <v>4.236316320329797</v>
+        <v>4.236316320329798</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05408063387655068</v>
+        <v>0.05408063387655069</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34389,7 +34389,7 @@
         <v>317.8483268922344</v>
       </c>
       <c r="Q44" t="n">
-        <v>238.690856377701</v>
+        <v>238.6908563777003</v>
       </c>
       <c r="R44" t="n">
         <v>138.8446899046032</v>
@@ -34450,13 +34450,13 @@
         <v>111.7327154000337</v>
       </c>
       <c r="K45" t="n">
-        <v>190.9690071437277</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>193.622539129729</v>
+        <v>299.6517788709875</v>
       </c>
       <c r="N45" t="n">
         <v>307.5826698160064</v>
@@ -34465,10 +34465,10 @@
         <v>281.3780517295216</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>225.8306932401776</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>150.961837844231</v>
       </c>
       <c r="R45" t="n">
         <v>73.42687522412501</v>
@@ -34789,7 +34789,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>113.3808631277494</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,16 +35020,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35257,13 +35257,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>175.6497713946492</v>
       </c>
       <c r="K11" t="n">
-        <v>385.2179235495883</v>
+        <v>385.2179235495884</v>
       </c>
       <c r="L11" t="n">
-        <v>530.7015717472299</v>
+        <v>530.70157174723</v>
       </c>
       <c r="M11" t="n">
-        <v>607.2820421709049</v>
+        <v>607.2820421709051</v>
       </c>
       <c r="N11" t="n">
-        <v>602.3287050062371</v>
+        <v>602.3287050062372</v>
       </c>
       <c r="O11" t="n">
-        <v>523.1178374893852</v>
+        <v>523.1178374893854</v>
       </c>
       <c r="P11" t="n">
-        <v>408.4140393084473</v>
+        <v>408.4140393084475</v>
       </c>
       <c r="Q11" t="n">
         <v>228.7001571631554</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>110.9861240737757</v>
+        <v>110.9861240737758</v>
       </c>
       <c r="K12" t="n">
-        <v>317.5928051819472</v>
+        <v>317.5928051819473</v>
       </c>
       <c r="L12" t="n">
-        <v>489.0673626675738</v>
+        <v>489.0673626675739</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>497.0099947070801</v>
+        <v>497.0099947070798</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>410.3190544657843</v>
+        <v>410.3190544657845</v>
       </c>
       <c r="Q12" t="n">
         <v>221.0573514940585</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>67.75351294681087</v>
+        <v>67.75351294681091</v>
       </c>
       <c r="K13" t="n">
         <v>183.9374364516646</v>
@@ -35579,16 +35579,16 @@
         <v>286.0177834045622</v>
       </c>
       <c r="N13" t="n">
-        <v>286.870568840386</v>
+        <v>286.8705688403861</v>
       </c>
       <c r="O13" t="n">
-        <v>255.7412552866358</v>
+        <v>255.7412552866359</v>
       </c>
       <c r="P13" t="n">
-        <v>208.2085295676596</v>
+        <v>208.2085295676597</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.87592130828486</v>
+        <v>87.87592130828492</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>175.6497713946493</v>
+        <v>175.6497713946491</v>
       </c>
       <c r="K14" t="n">
-        <v>385.2179235495885</v>
+        <v>385.2179235495882</v>
       </c>
       <c r="L14" t="n">
-        <v>530.7015717472301</v>
+        <v>530.7015717472298</v>
       </c>
       <c r="M14" t="n">
-        <v>607.2820421709051</v>
+        <v>607.2820421709049</v>
       </c>
       <c r="N14" t="n">
-        <v>602.3287050062373</v>
+        <v>602.328705006237</v>
       </c>
       <c r="O14" t="n">
-        <v>523.1178374893855</v>
+        <v>523.1178374893851</v>
       </c>
       <c r="P14" t="n">
-        <v>408.4140393084475</v>
+        <v>408.4140393084472</v>
       </c>
       <c r="Q14" t="n">
-        <v>228.7001571631555</v>
+        <v>228.7001571631553</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>110.9861240737757</v>
       </c>
       <c r="K15" t="n">
-        <v>317.5928051819474</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>489.0673626675739</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>331.3700450170309</v>
       </c>
       <c r="N15" t="n">
-        <v>607.9961187808553</v>
+        <v>655.5833320762265</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>532.6441265618064</v>
       </c>
       <c r="P15" t="n">
-        <v>410.3190544657845</v>
+        <v>410.3190544657843</v>
       </c>
       <c r="Q15" t="n">
-        <v>221.0573514940586</v>
+        <v>221.0573514940584</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>67.75351294681091</v>
+        <v>67.75351294681083</v>
       </c>
       <c r="K16" t="n">
-        <v>183.9374364516646</v>
+        <v>183.9374364516645</v>
       </c>
       <c r="L16" t="n">
-        <v>266.010984450329</v>
+        <v>266.0109844503291</v>
       </c>
       <c r="M16" t="n">
-        <v>286.0177834045623</v>
+        <v>286.0177834045621</v>
       </c>
       <c r="N16" t="n">
-        <v>286.8705688403861</v>
+        <v>286.870568840386</v>
       </c>
       <c r="O16" t="n">
-        <v>255.7412552866359</v>
+        <v>255.7412552866357</v>
       </c>
       <c r="P16" t="n">
-        <v>208.2085295676587</v>
+        <v>208.2085295676596</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.87592130828492</v>
+        <v>87.87592130828482</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>175.6497713946493</v>
+        <v>175.6497713946492</v>
       </c>
       <c r="K17" t="n">
-        <v>385.2179235495885</v>
+        <v>385.2179235495884</v>
       </c>
       <c r="L17" t="n">
-        <v>530.7015717472301</v>
+        <v>530.70157174723</v>
       </c>
       <c r="M17" t="n">
-        <v>607.2820421709051</v>
+        <v>607.282042170905</v>
       </c>
       <c r="N17" t="n">
-        <v>602.3287050062373</v>
+        <v>602.3287050062372</v>
       </c>
       <c r="O17" t="n">
-        <v>523.1178374893855</v>
+        <v>523.1178374893854</v>
       </c>
       <c r="P17" t="n">
-        <v>408.4140393084475</v>
+        <v>408.4140393084474</v>
       </c>
       <c r="Q17" t="n">
-        <v>228.7001571631555</v>
+        <v>228.7001571631554</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K18" t="n">
-        <v>317.5928051819474</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>489.0673626675738</v>
       </c>
       <c r="M18" t="n">
-        <v>421.7790896028235</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>655.5833320762267</v>
+        <v>557.5627879655173</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>532.6441265618066</v>
       </c>
       <c r="P18" t="n">
-        <v>410.3190544657845</v>
+        <v>410.3190544657844</v>
       </c>
       <c r="Q18" t="n">
-        <v>221.0573514940586</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>70.762494250711</v>
+        <v>70.76249425071111</v>
       </c>
       <c r="K19" t="n">
-        <v>186.9464177555647</v>
+        <v>186.9464177555648</v>
       </c>
       <c r="L19" t="n">
-        <v>269.019965754229</v>
+        <v>269.0199657542291</v>
       </c>
       <c r="M19" t="n">
-        <v>289.0267647084623</v>
+        <v>289.0267647084625</v>
       </c>
       <c r="N19" t="n">
-        <v>289.8795501442862</v>
+        <v>289.8795501442863</v>
       </c>
       <c r="O19" t="n">
-        <v>185.5571731582108</v>
+        <v>258.7502365905361</v>
       </c>
       <c r="P19" t="n">
-        <v>211.2175108715598</v>
+        <v>211.2175108715599</v>
       </c>
       <c r="Q19" t="n">
-        <v>90.884902612185</v>
+        <v>17.69183917985647</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.6497713946493</v>
+        <v>175.6497713946492</v>
       </c>
       <c r="K20" t="n">
-        <v>385.2179235495885</v>
+        <v>385.2179235495884</v>
       </c>
       <c r="L20" t="n">
-        <v>530.7015717472301</v>
+        <v>530.70157174723</v>
       </c>
       <c r="M20" t="n">
-        <v>607.2820421709051</v>
+        <v>607.282042170905</v>
       </c>
       <c r="N20" t="n">
-        <v>602.3287050062373</v>
+        <v>602.3287050062372</v>
       </c>
       <c r="O20" t="n">
-        <v>523.1178374893855</v>
+        <v>523.1178374893854</v>
       </c>
       <c r="P20" t="n">
-        <v>408.4140393084475</v>
+        <v>408.4140393084474</v>
       </c>
       <c r="Q20" t="n">
-        <v>228.7001571631555</v>
+        <v>228.7001571631554</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K21" t="n">
-        <v>317.5928051819474</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>489.0673626675739</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>331.3700450170301</v>
       </c>
       <c r="N21" t="n">
-        <v>441.4626362177355</v>
+        <v>655.5833320762265</v>
       </c>
       <c r="O21" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>410.3190544657844</v>
       </c>
       <c r="Q21" t="n">
-        <v>221.0573514940586</v>
+        <v>221.0573514940585</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>70.762494250711</v>
+        <v>70.76249425071111</v>
       </c>
       <c r="K22" t="n">
-        <v>113.7533543232395</v>
+        <v>186.9464177555648</v>
       </c>
       <c r="L22" t="n">
-        <v>269.019965754229</v>
+        <v>269.0199657542291</v>
       </c>
       <c r="M22" t="n">
-        <v>289.0267647084623</v>
+        <v>289.0267647084625</v>
       </c>
       <c r="N22" t="n">
-        <v>289.8795501442862</v>
+        <v>216.6864867119578</v>
       </c>
       <c r="O22" t="n">
-        <v>258.750236590536</v>
+        <v>258.7502365905361</v>
       </c>
       <c r="P22" t="n">
-        <v>211.2175108715598</v>
+        <v>211.2175108715599</v>
       </c>
       <c r="Q22" t="n">
-        <v>90.884902612185</v>
+        <v>90.8849026121851</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>178.0431239536411</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>482.331882861261</v>
+        <v>623.2228086989692</v>
       </c>
       <c r="N24" t="n">
         <v>655.5833320762267</v>
@@ -36457,7 +36457,7 @@
         <v>410.3190544657845</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>221.0573514940586</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>70.762494250711</v>
+        <v>70.76249425071106</v>
       </c>
       <c r="K25" t="n">
-        <v>186.9464177555647</v>
+        <v>186.9464177555648</v>
       </c>
       <c r="L25" t="n">
-        <v>195.826902321904</v>
+        <v>195.8269023219024</v>
       </c>
       <c r="M25" t="n">
-        <v>289.0267647084623</v>
+        <v>289.0267647084625</v>
       </c>
       <c r="N25" t="n">
-        <v>289.8795501442862</v>
+        <v>289.8795501442863</v>
       </c>
       <c r="O25" t="n">
         <v>258.750236590536</v>
@@ -36536,7 +36536,7 @@
         <v>211.2175108715598</v>
       </c>
       <c r="Q25" t="n">
-        <v>90.884902612185</v>
+        <v>90.88490261218506</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>317.5928051819474</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>489.0673626675739</v>
       </c>
       <c r="M27" t="n">
-        <v>331.3700450170298</v>
+        <v>623.2228086989692</v>
       </c>
       <c r="N27" t="n">
         <v>655.5833320762267</v>
@@ -36691,10 +36691,10 @@
         <v>532.6441265618066</v>
       </c>
       <c r="P27" t="n">
-        <v>410.3190544657845</v>
+        <v>2.75936206396246</v>
       </c>
       <c r="Q27" t="n">
-        <v>221.0573514940586</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>385.2179235495885</v>
       </c>
       <c r="L29" t="n">
-        <v>530.7015717472301</v>
+        <v>530.7015717472304</v>
       </c>
       <c r="M29" t="n">
         <v>607.2820421709051</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>489.0673626675739</v>
       </c>
       <c r="M30" t="n">
         <v>623.2228086989692</v>
       </c>
       <c r="N30" t="n">
-        <v>655.5833320762267</v>
+        <v>625.9371450918153</v>
       </c>
       <c r="O30" t="n">
-        <v>532.6441265618066</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>269.4281286280761</v>
+        <v>410.3190544657845</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>221.0573514940586</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.75351294681086</v>
+        <v>67.7535129468109</v>
       </c>
       <c r="K31" t="n">
         <v>183.9374364516646</v>
@@ -37007,10 +37007,10 @@
         <v>255.7412552866359</v>
       </c>
       <c r="P31" t="n">
-        <v>208.2085295676596</v>
+        <v>208.2085295676597</v>
       </c>
       <c r="Q31" t="n">
-        <v>87.87592130828486</v>
+        <v>87.8759213082849</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>530.7015717472301</v>
       </c>
       <c r="M32" t="n">
-        <v>607.2820421709054</v>
+        <v>607.2820421709051</v>
       </c>
       <c r="N32" t="n">
         <v>602.3287050062373</v>
@@ -37153,22 +37153,22 @@
         <v>317.5928051819474</v>
       </c>
       <c r="L33" t="n">
-        <v>356.6986433849119</v>
+        <v>489.0673626675739</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>623.2228086989692</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>655.5833320762267</v>
       </c>
       <c r="O33" t="n">
-        <v>532.6441265618066</v>
+        <v>14.0983100862093</v>
       </c>
       <c r="P33" t="n">
         <v>410.3190544657845</v>
       </c>
       <c r="Q33" t="n">
-        <v>221.0573514940586</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>70.76249425071101</v>
+        <v>70.76249425071104</v>
       </c>
       <c r="K34" t="n">
         <v>186.9464177555647</v>
@@ -37238,16 +37238,16 @@
         <v>289.0267647084624</v>
       </c>
       <c r="N34" t="n">
-        <v>289.8795501442862</v>
+        <v>289.8795501442863</v>
       </c>
       <c r="O34" t="n">
         <v>258.750236590536</v>
       </c>
       <c r="P34" t="n">
-        <v>138.0244474392338</v>
+        <v>211.2175108715598</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.88490261218502</v>
+        <v>17.69183917985877</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K36" t="n">
-        <v>317.5928051819474</v>
+        <v>67.0569998798653</v>
       </c>
       <c r="L36" t="n">
-        <v>489.0673626675739</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>623.2228086989692</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>655.5833320762267</v>
       </c>
       <c r="O36" t="n">
-        <v>400.2754072791444</v>
+        <v>532.6441265618066</v>
       </c>
       <c r="P36" t="n">
         <v>410.3190544657845</v>
@@ -37469,7 +37469,7 @@
         <v>186.9464177555647</v>
       </c>
       <c r="L37" t="n">
-        <v>195.8269023219026</v>
+        <v>269.0199657542291</v>
       </c>
       <c r="M37" t="n">
         <v>289.0267647084624</v>
@@ -37478,7 +37478,7 @@
         <v>289.8795501442863</v>
       </c>
       <c r="O37" t="n">
-        <v>258.750236590536</v>
+        <v>185.5571731582097</v>
       </c>
       <c r="P37" t="n">
         <v>211.2175108715598</v>
@@ -37548,22 +37548,22 @@
         <v>385.2179235495885</v>
       </c>
       <c r="L38" t="n">
-        <v>530.7015717472301</v>
+        <v>530.7015717472302</v>
       </c>
       <c r="M38" t="n">
-        <v>607.2820421709051</v>
+        <v>607.2820421709052</v>
       </c>
       <c r="N38" t="n">
-        <v>602.3287050062373</v>
+        <v>602.3287050062374</v>
       </c>
       <c r="O38" t="n">
-        <v>523.1178374893855</v>
+        <v>523.1178374893856</v>
       </c>
       <c r="P38" t="n">
-        <v>408.4140393084475</v>
+        <v>408.4140393084476</v>
       </c>
       <c r="Q38" t="n">
-        <v>228.7001571631555</v>
+        <v>228.7001571631567</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>317.5928051819474</v>
       </c>
       <c r="L39" t="n">
-        <v>461.1423322066919</v>
+        <v>489.067362667574</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>539.202972805539</v>
       </c>
       <c r="N39" t="n">
-        <v>655.5833320762267</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>532.6441265618066</v>
+        <v>532.6441265618067</v>
       </c>
       <c r="P39" t="n">
-        <v>410.3190544657845</v>
+        <v>410.3190544657846</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>221.0573514940586</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>70.76249425071104</v>
+        <v>70.762494250711</v>
       </c>
       <c r="K40" t="n">
         <v>186.9464177555647</v>
       </c>
       <c r="L40" t="n">
-        <v>269.0199657542291</v>
+        <v>195.8269023219043</v>
       </c>
       <c r="M40" t="n">
-        <v>289.0267647084624</v>
+        <v>289.0267647084623</v>
       </c>
       <c r="N40" t="n">
-        <v>216.6864867119598</v>
+        <v>289.8795501442862</v>
       </c>
       <c r="O40" t="n">
         <v>258.750236590536</v>
@@ -37721,7 +37721,7 @@
         <v>211.2175108715598</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.88490261218504</v>
+        <v>90.884902612185</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,22 +37785,22 @@
         <v>385.2179235495885</v>
       </c>
       <c r="L41" t="n">
-        <v>530.7015717472301</v>
+        <v>530.7015717472302</v>
       </c>
       <c r="M41" t="n">
-        <v>607.2820421709051</v>
+        <v>607.2820421709052</v>
       </c>
       <c r="N41" t="n">
-        <v>602.3287050062373</v>
+        <v>602.3287050062374</v>
       </c>
       <c r="O41" t="n">
-        <v>523.1178374893855</v>
+        <v>523.1178374893856</v>
       </c>
       <c r="P41" t="n">
-        <v>408.4140393084475</v>
+        <v>408.4140393084476</v>
       </c>
       <c r="Q41" t="n">
-        <v>228.7001571631555</v>
+        <v>228.7001571631556</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>317.5928051819474</v>
       </c>
       <c r="L42" t="n">
-        <v>407.6347775118481</v>
+        <v>489.067362667574</v>
       </c>
       <c r="M42" t="n">
         <v>623.2228086989692</v>
@@ -37873,13 +37873,13 @@
         <v>655.5833320762267</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>424.4173645519933</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37943,10 +37943,10 @@
         <v>183.9374364516646</v>
       </c>
       <c r="L43" t="n">
-        <v>266.0109844503289</v>
+        <v>266.010984450329</v>
       </c>
       <c r="M43" t="n">
-        <v>286.0177834045622</v>
+        <v>286.0177834045623</v>
       </c>
       <c r="N43" t="n">
         <v>286.8705688403861</v>
@@ -38037,7 +38037,7 @@
         <v>408.4140393084475</v>
       </c>
       <c r="Q44" t="n">
-        <v>228.7001571631562</v>
+        <v>228.7001571631555</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K45" t="n">
-        <v>317.5928051819474</v>
+        <v>67.0569998798653</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>517.1935689577106</v>
+        <v>623.2228086989692</v>
       </c>
       <c r="N45" t="n">
         <v>655.5833320762267</v>
@@ -38113,10 +38113,10 @@
         <v>532.6441265618066</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>410.3190544657845</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>221.0573514940586</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
